--- a/Process_Design/T=760K,P=6atm.xlsx
+++ b/Process_Design/T=760K,P=6atm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>Economic Potential 2</t>
   </si>
@@ -55,6 +55,9 @@
     <t>Length(ft)</t>
   </si>
   <si>
+    <t>Fc</t>
+  </si>
+  <si>
     <t>installation_cost</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
   </si>
   <si>
     <t>annual_capital_investment</t>
+  </si>
+  <si>
+    <t>reactor_volume</t>
   </si>
   <si>
     <t>catalyst_cost</t>
@@ -76,10 +82,28 @@
     <t>Reactor_Heating_Cost</t>
   </si>
   <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>TLM</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
     <t>annual_reactor_heating_cost</t>
   </si>
   <si>
     <t>Water_Cost</t>
+  </si>
+  <si>
+    <t>Reactor Q</t>
+  </si>
+  <si>
+    <t>delta_temp</t>
+  </si>
+  <si>
+    <t>price_coolingwater</t>
   </si>
   <si>
     <t>volume_flowrate</t>
@@ -91,6 +115,12 @@
     <t>Furnace_Cost</t>
   </si>
   <si>
+    <t>Furnace Heat Duty</t>
+  </si>
+  <si>
+    <t>price_fuel</t>
+  </si>
+  <si>
     <t>annual_operating_cost</t>
   </si>
   <si>
@@ -98,6 +128,15 @@
   </si>
   <si>
     <t>Pump_Cost</t>
+  </si>
+  <si>
+    <t>pressure drop</t>
+  </si>
+  <si>
+    <t>shaft work</t>
+  </si>
+  <si>
+    <t>price_electricity</t>
   </si>
   <si>
     <t>annual_pump_cost</t>
@@ -467,13 +506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB31"/>
+  <dimension ref="A1:BQ31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:54">
+    <row r="1" spans="1:69">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,106 +577,151 @@
         <v>19</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="BB1" s="1" t="s">
-        <v>31</v>
+      <c r="BQ1" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:54">
+    <row r="2" spans="1:69">
       <c r="B2">
         <v>0.0492054302</v>
       </c>
@@ -675,112 +759,157 @@
         <v>19.0298</v>
       </c>
       <c r="O2">
+        <v>2.3625</v>
+      </c>
+      <c r="P2">
         <v>62373.76869802299</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>130735.4191910562</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>43578.47306368539</v>
       </c>
-      <c r="R2">
+      <c r="S2">
+        <v>1.532406064568029</v>
+      </c>
+      <c r="T2">
         <v>1214.508426473392</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>103106.704955814</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>146685.1780194994</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>0.0492054302</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
+        <v>113.565</v>
+      </c>
+      <c r="Z2">
+        <v>461.9278409115535</v>
+      </c>
+      <c r="AA2">
+        <v>497.5804254488717</v>
+      </c>
+      <c r="AB2">
+        <v>3.7935</v>
+      </c>
+      <c r="AC2">
         <v>224304.8004031543</v>
       </c>
-      <c r="X2">
+      <c r="AD2">
         <v>468797.0328425925</v>
       </c>
-      <c r="Y2">
+      <c r="AE2">
         <v>156265.6776141975</v>
       </c>
-      <c r="Z2">
+      <c r="AF2">
         <v>156265.6776141975</v>
       </c>
-      <c r="AB2">
+      <c r="AH2">
         <v>0.0492054302</v>
       </c>
-      <c r="AC2">
+      <c r="AI2">
+        <v>-2.42498045</v>
+      </c>
+      <c r="AJ2">
+        <v>20</v>
+      </c>
+      <c r="AK2">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL2">
         <v>850055.8643518786</v>
       </c>
-      <c r="AD2">
+      <c r="AM2">
         <v>6902.453618537254</v>
       </c>
-      <c r="AF2">
+      <c r="AO2">
         <v>0.0492054302</v>
       </c>
-      <c r="AG2">
+      <c r="AP2">
+        <v>496.5626852953143</v>
+      </c>
+      <c r="AQ2">
+        <v>1.75</v>
+      </c>
+      <c r="AR2">
+        <v>20971933.08060127</v>
+      </c>
+      <c r="AS2">
+        <v>43831340.13845666</v>
+      </c>
+      <c r="AT2">
+        <v>14610446.71281889</v>
+      </c>
+      <c r="AU2">
+        <v>3.8</v>
+      </c>
+      <c r="AV2">
         <v>15378546.36359588</v>
       </c>
-      <c r="AH2">
-        <v>20971933.08060127</v>
-      </c>
-      <c r="AI2">
-        <v>43831340.13845666</v>
-      </c>
-      <c r="AJ2">
-        <v>14610446.71281889</v>
-      </c>
-      <c r="AK2">
+      <c r="AW2">
         <v>29988993.07641477</v>
       </c>
-      <c r="AM2">
+      <c r="AY2">
         <v>0.0492054302</v>
       </c>
-      <c r="AN2">
+      <c r="AZ2">
+        <v>506625</v>
+      </c>
+      <c r="BA2">
+        <v>58277.90723731159</v>
+      </c>
+      <c r="BB2">
+        <v>35118.05577282849</v>
+      </c>
+      <c r="BC2">
+        <v>73396.73656521154</v>
+      </c>
+      <c r="BD2">
+        <v>24465.57885507051</v>
+      </c>
+      <c r="BE2">
+        <v>0.035</v>
+      </c>
+      <c r="BF2">
         <v>22292.84301923445</v>
       </c>
-      <c r="AO2">
-        <v>35118.05577282849</v>
-      </c>
-      <c r="AP2">
-        <v>73396.73656521154</v>
-      </c>
-      <c r="AQ2">
-        <v>24465.57885507051</v>
-      </c>
-      <c r="AR2">
+      <c r="BG2">
         <v>46758.42187430496</v>
       </c>
-      <c r="AT2">
+      <c r="BI2">
         <v>0.0492054302</v>
       </c>
-      <c r="AU2">
+      <c r="BJ2">
         <v>0.9158880690757168</v>
       </c>
-      <c r="AV2">
+      <c r="BK2">
         <v>146685.1780194994</v>
       </c>
-      <c r="AW2">
+      <c r="BL2">
         <v>156265.6776141975</v>
       </c>
-      <c r="AX2">
+      <c r="BM2">
         <v>29988993.07641477</v>
       </c>
-      <c r="AY2">
+      <c r="BN2">
         <v>46758.42187430496</v>
       </c>
-      <c r="AZ2">
+      <c r="BO2">
         <v>6902.453618537254</v>
       </c>
-      <c r="BA2">
+      <c r="BP2">
         <v>67904729.64507967</v>
       </c>
-      <c r="BB2">
+      <c r="BQ2">
         <v>37559124.83753837</v>
       </c>
     </row>
-    <row r="3" spans="1:54">
+    <row r="3" spans="1:69">
       <c r="B3">
         <v>0.089340273</v>
       </c>
@@ -818,112 +947,157 @@
         <v>20.24663467391</v>
       </c>
       <c r="O3">
+        <v>2.3625</v>
+      </c>
+      <c r="P3">
         <v>70030.29770439539</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>146783.5039884127</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>48927.83466280424</v>
       </c>
-      <c r="R3">
+      <c r="S3">
+        <v>1.845566634296951</v>
+      </c>
+      <c r="T3">
         <v>1462.703836012049</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>124177.4610781062</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>173105.2957409105</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>0.089340273</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
+        <v>113.565</v>
+      </c>
+      <c r="Z3">
+        <v>461.9278409115535</v>
+      </c>
+      <c r="AA3">
+        <v>521.4497724917135</v>
+      </c>
+      <c r="AB3">
+        <v>3.7935</v>
+      </c>
+      <c r="AC3">
         <v>231241.376019142</v>
       </c>
-      <c r="X3">
+      <c r="AD3">
         <v>483294.4758800067</v>
       </c>
-      <c r="Y3">
+      <c r="AE3">
         <v>161098.1586266689</v>
       </c>
-      <c r="Z3">
+      <c r="AF3">
         <v>161098.1586266689</v>
       </c>
-      <c r="AB3">
+      <c r="AH3">
         <v>0.089340273</v>
       </c>
-      <c r="AC3">
+      <c r="AI3">
+        <v>-2.54130878</v>
+      </c>
+      <c r="AJ3">
+        <v>20</v>
+      </c>
+      <c r="AK3">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL3">
         <v>890833.7514918598</v>
       </c>
-      <c r="AD3">
+      <c r="AM3">
         <v>7233.5700621139</v>
       </c>
-      <c r="AF3">
+      <c r="AO3">
         <v>0.089340273</v>
       </c>
-      <c r="AG3">
+      <c r="AP3">
+        <v>285.8290620001538</v>
+      </c>
+      <c r="AQ3">
+        <v>1.75</v>
+      </c>
+      <c r="AR3">
+        <v>13114475.34344221</v>
+      </c>
+      <c r="AS3">
+        <v>27409253.46779421</v>
+      </c>
+      <c r="AT3">
+        <v>9136417.822598068</v>
+      </c>
+      <c r="AU3">
+        <v>3.8</v>
+      </c>
+      <c r="AV3">
         <v>8852126.050144766</v>
       </c>
-      <c r="AH3">
-        <v>13114475.34344221</v>
-      </c>
-      <c r="AI3">
-        <v>27409253.46779421</v>
-      </c>
-      <c r="AJ3">
-        <v>9136417.822598068</v>
-      </c>
-      <c r="AK3">
+      <c r="AW3">
         <v>17988543.87274283</v>
       </c>
-      <c r="AM3">
+      <c r="AY3">
         <v>0.089340273</v>
       </c>
-      <c r="AN3">
+      <c r="AZ3">
+        <v>506625</v>
+      </c>
+      <c r="BA3">
+        <v>33550.22509213212</v>
+      </c>
+      <c r="BB3">
+        <v>24819.58678684392</v>
+      </c>
+      <c r="BC3">
+        <v>51872.93638450378</v>
+      </c>
+      <c r="BD3">
+        <v>17290.97879483459</v>
+      </c>
+      <c r="BE3">
+        <v>0.035</v>
+      </c>
+      <c r="BF3">
         <v>12833.84968154846</v>
       </c>
-      <c r="AO3">
-        <v>24819.58678684392</v>
-      </c>
-      <c r="AP3">
-        <v>51872.93638450378</v>
-      </c>
-      <c r="AQ3">
-        <v>17290.97879483459</v>
-      </c>
-      <c r="AR3">
+      <c r="BG3">
         <v>30124.82847638305</v>
       </c>
-      <c r="AT3">
+      <c r="BI3">
         <v>0.089340273</v>
       </c>
-      <c r="AU3">
+      <c r="BJ3">
         <v>0.8773286172664249</v>
       </c>
-      <c r="AV3">
+      <c r="BK3">
         <v>173105.2957409105</v>
       </c>
-      <c r="AW3">
+      <c r="BL3">
         <v>161098.1586266689</v>
       </c>
-      <c r="AX3">
+      <c r="BM3">
         <v>17988543.87274283</v>
       </c>
-      <c r="AY3">
+      <c r="BN3">
         <v>30124.82847638305</v>
       </c>
-      <c r="AZ3">
+      <c r="BO3">
         <v>7233.5700621139</v>
       </c>
-      <c r="BA3">
+      <c r="BP3">
         <v>66814416.66833109</v>
       </c>
-      <c r="BB3">
+      <c r="BQ3">
         <v>48454310.94268218</v>
       </c>
     </row>
-    <row r="4" spans="1:54">
+    <row r="4" spans="1:69">
       <c r="B4">
         <v>0.120472809</v>
       </c>
@@ -961,112 +1135,157 @@
         <v>21.54127816439</v>
       </c>
       <c r="O4">
+        <v>2.3625</v>
+      </c>
+      <c r="P4">
         <v>78626.6837784782</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>164801.5291996903</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>54933.84306656343</v>
       </c>
-      <c r="R4">
+      <c r="S4">
+        <v>2.222724296296887</v>
+      </c>
+      <c r="T4">
         <v>1761.620141030098</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>149554.2098895344</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>204488.0529560978</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>0.120472809</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
+        <v>113.565</v>
+      </c>
+      <c r="Z4">
+        <v>461.9278409115535</v>
+      </c>
+      <c r="AA4">
+        <v>548.847967842124</v>
+      </c>
+      <c r="AB4">
+        <v>3.7935</v>
+      </c>
+      <c r="AC4">
         <v>239067.9023048011</v>
       </c>
-      <c r="X4">
+      <c r="AD4">
         <v>499651.9158170342</v>
       </c>
-      <c r="Y4">
+      <c r="AE4">
         <v>166550.638605678</v>
       </c>
-      <c r="Z4">
+      <c r="AF4">
         <v>166550.638605678</v>
       </c>
-      <c r="AB4">
+      <c r="AH4">
         <v>0.120472809</v>
       </c>
-      <c r="AC4">
+      <c r="AI4">
+        <v>-2.67483511</v>
+      </c>
+      <c r="AJ4">
+        <v>20</v>
+      </c>
+      <c r="AK4">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL4">
         <v>937640.2483697557</v>
       </c>
-      <c r="AD4">
+      <c r="AM4">
         <v>7613.638816762415</v>
       </c>
-      <c r="AF4">
+      <c r="AO4">
         <v>0.120472809</v>
       </c>
-      <c r="AG4">
+      <c r="AP4">
+        <v>222.631354668296</v>
+      </c>
+      <c r="AQ4">
+        <v>1.75</v>
+      </c>
+      <c r="AR4">
+        <v>10604956.07465077</v>
+      </c>
+      <c r="AS4">
+        <v>22164358.1960201</v>
+      </c>
+      <c r="AT4">
+        <v>7388119.398673367</v>
+      </c>
+      <c r="AU4">
+        <v>3.8</v>
+      </c>
+      <c r="AV4">
         <v>6894893.054077126</v>
       </c>
-      <c r="AH4">
-        <v>10604956.07465077</v>
-      </c>
-      <c r="AI4">
-        <v>22164358.1960201</v>
-      </c>
-      <c r="AJ4">
-        <v>7388119.398673367</v>
-      </c>
-      <c r="AK4">
+      <c r="AW4">
         <v>14283012.45275049</v>
       </c>
-      <c r="AM4">
+      <c r="AY4">
         <v>0.120472809</v>
       </c>
-      <c r="AN4">
+      <c r="AZ4">
+        <v>506625</v>
+      </c>
+      <c r="BA4">
+        <v>26135.00606195669</v>
+      </c>
+      <c r="BB4">
+        <v>21170.64841179735</v>
+      </c>
+      <c r="BC4">
+        <v>44246.65518065645</v>
+      </c>
+      <c r="BD4">
+        <v>14748.88506021882</v>
+      </c>
+      <c r="BE4">
+        <v>0.035</v>
+      </c>
+      <c r="BF4">
         <v>9997.332009082937</v>
       </c>
-      <c r="AO4">
-        <v>21170.64841179735</v>
-      </c>
-      <c r="AP4">
-        <v>44246.65518065645</v>
-      </c>
-      <c r="AQ4">
-        <v>14748.88506021882</v>
-      </c>
-      <c r="AR4">
+      <c r="BG4">
         <v>24746.21706930175</v>
       </c>
-      <c r="AT4">
+      <c r="BI4">
         <v>0.120472809</v>
       </c>
-      <c r="AU4">
+      <c r="BJ4">
         <v>0.8361379470814798</v>
       </c>
-      <c r="AV4">
+      <c r="BK4">
         <v>204488.0529560978</v>
       </c>
-      <c r="AW4">
+      <c r="BL4">
         <v>166550.638605678</v>
       </c>
-      <c r="AX4">
+      <c r="BM4">
         <v>14283012.45275049</v>
       </c>
-      <c r="AY4">
+      <c r="BN4">
         <v>24746.21706930175</v>
       </c>
-      <c r="AZ4">
+      <c r="BO4">
         <v>7613.638816762415</v>
       </c>
-      <c r="BA4">
+      <c r="BP4">
         <v>65553658.38493446</v>
       </c>
-      <c r="BB4">
+      <c r="BQ4">
         <v>50867247.38473614</v>
       </c>
     </row>
-    <row r="5" spans="1:54">
+    <row r="5" spans="1:69">
       <c r="B5">
         <v>0.144722797</v>
       </c>
@@ -1104,112 +1323,157 @@
         <v>22.91870587827</v>
       </c>
       <c r="O5">
+        <v>2.3625</v>
+      </c>
+      <c r="P5">
         <v>88278.29680363023</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>185031.310100409</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>61677.10336680298</v>
       </c>
-      <c r="R5">
+      <c r="S5">
+        <v>2.676957423624585</v>
+      </c>
+      <c r="T5">
         <v>2121.622606093665</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>180116.9191631601</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>241794.0225299631</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>0.144722797</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
+        <v>113.565</v>
+      </c>
+      <c r="Z5">
+        <v>461.9278409115535</v>
+      </c>
+      <c r="AA5">
+        <v>580.4499699125261</v>
+      </c>
+      <c r="AB5">
+        <v>3.7935</v>
+      </c>
+      <c r="AC5">
         <v>247927.411969367</v>
       </c>
-      <c r="X5">
+      <c r="AD5">
         <v>518168.2910159771</v>
       </c>
-      <c r="Y5">
+      <c r="AE5">
         <v>172722.7636719923</v>
       </c>
-      <c r="Z5">
+      <c r="AF5">
         <v>172722.7636719923</v>
       </c>
-      <c r="AB5">
+      <c r="AH5">
         <v>0.144722797</v>
       </c>
-      <c r="AC5">
+      <c r="AI5">
+        <v>-2.82884888</v>
+      </c>
+      <c r="AJ5">
+        <v>20</v>
+      </c>
+      <c r="AK5">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL5">
         <v>991628.4396475211</v>
       </c>
-      <c r="AD5">
+      <c r="AM5">
         <v>8052.022929937871</v>
       </c>
-      <c r="AF5">
+      <c r="AO5">
         <v>0.144722797</v>
       </c>
-      <c r="AG5">
+      <c r="AP5">
+        <v>195.5319295417398</v>
+      </c>
+      <c r="AQ5">
+        <v>1.75</v>
+      </c>
+      <c r="AR5">
+        <v>9497198.76876899</v>
+      </c>
+      <c r="AS5">
+        <v>19849145.42672719</v>
+      </c>
+      <c r="AT5">
+        <v>6616381.808909062</v>
+      </c>
+      <c r="AU5">
+        <v>3.8</v>
+      </c>
+      <c r="AV5">
         <v>6055623.857907683</v>
       </c>
-      <c r="AH5">
-        <v>9497198.76876899</v>
-      </c>
-      <c r="AI5">
-        <v>19849145.42672719</v>
-      </c>
-      <c r="AJ5">
-        <v>6616381.808909062</v>
-      </c>
-      <c r="AK5">
+      <c r="AW5">
         <v>12672005.66681674</v>
       </c>
-      <c r="AM5">
+      <c r="AY5">
         <v>0.144722797</v>
       </c>
-      <c r="AN5">
+      <c r="AZ5">
+        <v>506625</v>
+      </c>
+      <c r="BA5">
+        <v>22972.57961934477</v>
+      </c>
+      <c r="BB5">
+        <v>19489.9512232987</v>
+      </c>
+      <c r="BC5">
+        <v>40733.99805669429</v>
+      </c>
+      <c r="BD5">
+        <v>13577.99935223143</v>
+      </c>
+      <c r="BE5">
+        <v>0.035</v>
+      </c>
+      <c r="BF5">
         <v>8787.620137344906</v>
       </c>
-      <c r="AO5">
-        <v>19489.9512232987</v>
-      </c>
-      <c r="AP5">
-        <v>40733.99805669429</v>
-      </c>
-      <c r="AQ5">
-        <v>13577.99935223143</v>
-      </c>
-      <c r="AR5">
+      <c r="BG5">
         <v>22365.61948957633</v>
       </c>
-      <c r="AT5">
+      <c r="BI5">
         <v>0.144722797</v>
       </c>
-      <c r="AU5">
+      <c r="BJ5">
         <v>0.7926269486994239</v>
       </c>
-      <c r="AV5">
+      <c r="BK5">
         <v>241794.0225299631</v>
       </c>
-      <c r="AW5">
+      <c r="BL5">
         <v>172722.7636719923</v>
       </c>
-      <c r="AX5">
+      <c r="BM5">
         <v>12672005.66681674</v>
       </c>
-      <c r="AY5">
+      <c r="BN5">
         <v>22365.61948957633</v>
       </c>
-      <c r="AZ5">
+      <c r="BO5">
         <v>8052.022929937871</v>
       </c>
-      <c r="BA5">
+      <c r="BP5">
         <v>64089996.70648101</v>
       </c>
-      <c r="BB5">
+      <c r="BQ5">
         <v>50973056.61104281</v>
       </c>
     </row>
-    <row r="6" spans="1:54">
+    <row r="6" spans="1:69">
       <c r="B6">
         <v>0.163717026</v>
       </c>
@@ -1247,112 +1511,157 @@
         <v>24.38421134814</v>
       </c>
       <c r="O6">
+        <v>2.3625</v>
+      </c>
+      <c r="P6">
         <v>99114.66847295425</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>207744.3451193121</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>69248.1150397707</v>
       </c>
-      <c r="R6">
+      <c r="S6">
+        <v>3.224017064799729</v>
+      </c>
+      <c r="T6">
         <v>2555.194724707025</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>216925.3854829402</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>286173.5005227108</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>0.163717026</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
+        <v>113.565</v>
+      </c>
+      <c r="Z6">
+        <v>461.9278409115535</v>
+      </c>
+      <c r="AA6">
+        <v>616.8949397624099</v>
+      </c>
+      <c r="AB6">
+        <v>3.7935</v>
+      </c>
+      <c r="AC6">
         <v>257937.6368337682</v>
       </c>
-      <c r="X6">
+      <c r="AD6">
         <v>539089.6609825755</v>
       </c>
-      <c r="Y6">
+      <c r="AE6">
         <v>179696.5536608585</v>
       </c>
-      <c r="Z6">
+      <c r="AF6">
         <v>179696.5536608585</v>
       </c>
-      <c r="AB6">
+      <c r="AH6">
         <v>0.163717026</v>
       </c>
-      <c r="AC6">
+      <c r="AI6">
+        <v>-3.00646507</v>
+      </c>
+      <c r="AJ6">
+        <v>20</v>
+      </c>
+      <c r="AK6">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL6">
         <v>1053890.25454724</v>
       </c>
-      <c r="AD6">
+      <c r="AM6">
         <v>8557.588866923588</v>
       </c>
-      <c r="AF6">
+      <c r="AO6">
         <v>0.163717026</v>
       </c>
-      <c r="AG6">
+      <c r="AP6">
+        <v>183.3356971971532</v>
+      </c>
+      <c r="AQ6">
+        <v>1.75</v>
+      </c>
+      <c r="AR6">
+        <v>8991258.289895579</v>
+      </c>
+      <c r="AS6">
+        <v>18791729.82588176</v>
+      </c>
+      <c r="AT6">
+        <v>6263909.941960586</v>
+      </c>
+      <c r="AU6">
+        <v>3.8</v>
+      </c>
+      <c r="AV6">
         <v>5677906.542195834</v>
       </c>
-      <c r="AH6">
-        <v>8991258.289895579</v>
-      </c>
-      <c r="AI6">
-        <v>18791729.82588176</v>
-      </c>
-      <c r="AJ6">
-        <v>6263909.941960586</v>
-      </c>
-      <c r="AK6">
+      <c r="AW6">
         <v>11941816.48415642</v>
       </c>
-      <c r="AM6">
+      <c r="AY6">
         <v>0.163717026</v>
       </c>
-      <c r="AN6">
+      <c r="AZ6">
+        <v>506625</v>
+      </c>
+      <c r="BA6">
+        <v>21561.32650314534</v>
+      </c>
+      <c r="BB6">
+        <v>18710.24780021018</v>
+      </c>
+      <c r="BC6">
+        <v>39104.41790243928</v>
+      </c>
+      <c r="BD6">
+        <v>13034.80596747976</v>
+      </c>
+      <c r="BE6">
+        <v>0.035</v>
+      </c>
+      <c r="BF6">
         <v>8247.778443103405</v>
       </c>
-      <c r="AO6">
-        <v>18710.24780021018</v>
-      </c>
-      <c r="AP6">
-        <v>39104.41790243928</v>
-      </c>
-      <c r="AQ6">
-        <v>13034.80596747976</v>
-      </c>
-      <c r="AR6">
+      <c r="BG6">
         <v>21282.58441058316</v>
       </c>
-      <c r="AT6">
+      <c r="BI6">
         <v>0.163717026</v>
       </c>
-      <c r="AU6">
+      <c r="BJ6">
         <v>0.7471924943322185</v>
       </c>
-      <c r="AV6">
+      <c r="BK6">
         <v>286173.5005227108</v>
       </c>
-      <c r="AW6">
+      <c r="BL6">
         <v>179696.5536608585</v>
       </c>
-      <c r="AX6">
+      <c r="BM6">
         <v>11941816.48415642</v>
       </c>
-      <c r="AY6">
+      <c r="BN6">
         <v>21282.58441058316</v>
       </c>
-      <c r="AZ6">
+      <c r="BO6">
         <v>8557.588866923588</v>
       </c>
-      <c r="BA6">
+      <c r="BP6">
         <v>62397697.52432558</v>
       </c>
-      <c r="BB6">
+      <c r="BQ6">
         <v>49960170.81270807</v>
       </c>
     </row>
-    <row r="7" spans="1:54">
+    <row r="7" spans="1:69">
       <c r="B7">
         <v>0.179045046</v>
       </c>
@@ -1390,112 +1699,157 @@
         <v>25.94342654174</v>
       </c>
       <c r="O7">
+        <v>2.3625</v>
+      </c>
+      <c r="P7">
         <v>111281.2303932461</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>233245.4589042438</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>77748.4863014146</v>
       </c>
-      <c r="R7">
+      <c r="S7">
+        <v>3.882873110496881</v>
+      </c>
+      <c r="T7">
         <v>3077.371083724303</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>261255.9826286779</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>339004.4689300925</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>0.179045046</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
+        <v>113.565</v>
+      </c>
+      <c r="Z7">
+        <v>461.9278409115535</v>
+      </c>
+      <c r="AA7">
+        <v>658.7668835248162</v>
+      </c>
+      <c r="AB7">
+        <v>3.7935</v>
+      </c>
+      <c r="AC7">
         <v>269186.3754383656</v>
       </c>
-      <c r="X7">
+      <c r="AD7">
         <v>562599.5246661841</v>
       </c>
-      <c r="Y7">
+      <c r="AE7">
         <v>187533.174888728</v>
       </c>
-      <c r="Z7">
+      <c r="AF7">
         <v>187533.174888728</v>
       </c>
-      <c r="AB7">
+      <c r="AH7">
         <v>0.179045046</v>
       </c>
-      <c r="AC7">
+      <c r="AI7">
+        <v>-3.21052986</v>
+      </c>
+      <c r="AJ7">
+        <v>20</v>
+      </c>
+      <c r="AK7">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL7">
         <v>1125423.39678236</v>
       </c>
-      <c r="AD7">
+      <c r="AM7">
         <v>9138.437981872761</v>
       </c>
-      <c r="AF7">
+      <c r="AO7">
         <v>0.179045046</v>
       </c>
-      <c r="AG7">
+      <c r="AP7">
+        <v>178.8055001827237</v>
+      </c>
+      <c r="AQ7">
+        <v>1.75</v>
+      </c>
+      <c r="AR7">
+        <v>8802058.228478519</v>
+      </c>
+      <c r="AS7">
+        <v>18396301.6975201</v>
+      </c>
+      <c r="AT7">
+        <v>6132100.565840034</v>
+      </c>
+      <c r="AU7">
+        <v>3.8</v>
+      </c>
+      <c r="AV7">
         <v>5537606.340658952</v>
       </c>
-      <c r="AH7">
-        <v>8802058.228478519</v>
-      </c>
-      <c r="AI7">
-        <v>18396301.6975201</v>
-      </c>
-      <c r="AJ7">
-        <v>6132100.565840034</v>
-      </c>
-      <c r="AK7">
+      <c r="AW7">
         <v>11669706.90649899</v>
       </c>
-      <c r="AM7">
+      <c r="AY7">
         <v>0.179045046</v>
       </c>
-      <c r="AN7">
+      <c r="AZ7">
+        <v>506625</v>
+      </c>
+      <c r="BA7">
+        <v>21050.05749056401</v>
+      </c>
+      <c r="BB7">
+        <v>18422.76943013149</v>
+      </c>
+      <c r="BC7">
+        <v>38503.58810897481</v>
+      </c>
+      <c r="BD7">
+        <v>12834.52936965827</v>
+      </c>
+      <c r="BE7">
+        <v>0.035</v>
+      </c>
+      <c r="BF7">
         <v>8052.204504738345</v>
       </c>
-      <c r="AO7">
-        <v>18422.76943013149</v>
-      </c>
-      <c r="AP7">
-        <v>38503.58810897481</v>
-      </c>
-      <c r="AQ7">
-        <v>12834.52936965827</v>
-      </c>
-      <c r="AR7">
+      <c r="BG7">
         <v>20886.73387439662</v>
       </c>
-      <c r="AT7">
+      <c r="BI7">
         <v>0.179045046</v>
       </c>
-      <c r="AU7">
+      <c r="BJ7">
         <v>0.70039988655888</v>
       </c>
-      <c r="AV7">
+      <c r="BK7">
         <v>339004.4689300925</v>
       </c>
-      <c r="AW7">
+      <c r="BL7">
         <v>187533.174888728</v>
       </c>
-      <c r="AX7">
+      <c r="BM7">
         <v>11669706.90649899</v>
       </c>
-      <c r="AY7">
+      <c r="BN7">
         <v>20886.73387439662</v>
       </c>
-      <c r="AZ7">
+      <c r="BO7">
         <v>9138.437981872761</v>
       </c>
-      <c r="BA7">
+      <c r="BP7">
         <v>60450099.52168088</v>
       </c>
-      <c r="BB7">
+      <c r="BQ7">
         <v>48223829.79950681</v>
       </c>
     </row>
-    <row r="8" spans="1:54">
+    <row r="8" spans="1:69">
       <c r="B8">
         <v>0.191422258</v>
       </c>
@@ -1533,112 +1887,157 @@
         <v>27.6023436478</v>
       </c>
       <c r="O8">
+        <v>2.3625</v>
+      </c>
+      <c r="P8">
         <v>124941.2669719274</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>261876.8955731599</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>87292.29852438664</v>
       </c>
-      <c r="R8">
+      <c r="S8">
+        <v>4.676372153683906</v>
+      </c>
+      <c r="T8">
         <v>3706.258750402181</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>314645.9251643518</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>401938.2236887385</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>0.191422258</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
+        <v>113.565</v>
+      </c>
+      <c r="Z8">
+        <v>461.9278409115535</v>
+      </c>
+      <c r="AA8">
+        <v>706.8928460388203</v>
+      </c>
+      <c r="AB8">
+        <v>3.7935</v>
+      </c>
+      <c r="AC8">
         <v>281810.5598574796</v>
       </c>
-      <c r="X8">
+      <c r="AD8">
         <v>588984.0701021323</v>
       </c>
-      <c r="Y8">
+      <c r="AE8">
         <v>196328.0233673774</v>
       </c>
-      <c r="Z8">
+      <c r="AF8">
         <v>196328.0233673774</v>
       </c>
-      <c r="AB8">
+      <c r="AH8">
         <v>0.191422258</v>
       </c>
-      <c r="AC8">
+      <c r="AI8">
+        <v>-3.44507389</v>
+      </c>
+      <c r="AJ8">
+        <v>20</v>
+      </c>
+      <c r="AK8">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL8">
         <v>1207640.772246242</v>
       </c>
-      <c r="AD8">
+      <c r="AM8">
         <v>9806.043070639482</v>
       </c>
-      <c r="AF8">
+      <c r="AO8">
         <v>0.191422258</v>
       </c>
-      <c r="AG8">
+      <c r="AP8">
+        <v>179.4168013874292</v>
+      </c>
+      <c r="AQ8">
+        <v>1.75</v>
+      </c>
+      <c r="AR8">
+        <v>8827630.323795868</v>
+      </c>
+      <c r="AS8">
+        <v>18449747.37673336</v>
+      </c>
+      <c r="AT8">
+        <v>6149915.792244454</v>
+      </c>
+      <c r="AU8">
+        <v>3.8</v>
+      </c>
+      <c r="AV8">
         <v>5556538.338968682</v>
       </c>
-      <c r="AH8">
-        <v>8827630.323795868</v>
-      </c>
-      <c r="AI8">
-        <v>18449747.37673336</v>
-      </c>
-      <c r="AJ8">
-        <v>6149915.792244454</v>
-      </c>
-      <c r="AK8">
+      <c r="AW8">
         <v>11706454.13121314</v>
       </c>
-      <c r="AM8">
+      <c r="AY8">
         <v>0.191422258</v>
       </c>
-      <c r="AN8">
+      <c r="AZ8">
+        <v>506625</v>
+      </c>
+      <c r="BA8">
+        <v>21143.43758521409</v>
+      </c>
+      <c r="BB8">
+        <v>18475.48227198666</v>
+      </c>
+      <c r="BC8">
+        <v>38613.75794845212</v>
+      </c>
+      <c r="BD8">
+        <v>12871.25264948404</v>
+      </c>
+      <c r="BE8">
+        <v>0.035</v>
+      </c>
+      <c r="BF8">
         <v>8087.924864130776</v>
       </c>
-      <c r="AO8">
-        <v>18475.48227198666</v>
-      </c>
-      <c r="AP8">
-        <v>38613.75794845212</v>
-      </c>
-      <c r="AQ8">
-        <v>12871.25264948404</v>
-      </c>
-      <c r="AR8">
+      <c r="BG8">
         <v>20959.17751361481</v>
       </c>
-      <c r="AT8">
+      <c r="BI8">
         <v>0.191422258</v>
       </c>
-      <c r="AU8">
+      <c r="BJ8">
         <v>0.6527258236574216</v>
       </c>
-      <c r="AV8">
+      <c r="BK8">
         <v>401938.2236887385</v>
       </c>
-      <c r="AW8">
+      <c r="BL8">
         <v>196328.0233673774</v>
       </c>
-      <c r="AX8">
+      <c r="BM8">
         <v>11706454.13121314</v>
       </c>
-      <c r="AY8">
+      <c r="BN8">
         <v>20959.17751361481</v>
       </c>
-      <c r="AZ8">
+      <c r="BO8">
         <v>9806.043070639482</v>
       </c>
-      <c r="BA8">
+      <c r="BP8">
         <v>58207242.69115984</v>
       </c>
-      <c r="BB8">
+      <c r="BQ8">
         <v>45871757.09230635</v>
       </c>
     </row>
-    <row r="9" spans="1:54">
+    <row r="9" spans="1:69">
       <c r="B9">
         <v>0.201885088</v>
       </c>
@@ -1676,112 +2075,157 @@
         <v>29.36733794461</v>
       </c>
       <c r="O9">
+        <v>2.3625</v>
+      </c>
+      <c r="P9">
         <v>140278.1055826643</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>294022.9093012643</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>98007.63643375477</v>
       </c>
-      <c r="R9">
+      <c r="S9">
+        <v>5.632029655297591</v>
+      </c>
+      <c r="T9">
         <v>4463.665103306107</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>378946.5686660914</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>476954.2050998461</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>0.201885088</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
+        <v>113.565</v>
+      </c>
+      <c r="Z9">
+        <v>461.9278409115535</v>
+      </c>
+      <c r="AA9">
+        <v>762.0636069585996</v>
+      </c>
+      <c r="AB9">
+        <v>3.7935</v>
+      </c>
+      <c r="AC9">
         <v>295918.2335241148</v>
       </c>
-      <c r="X9">
+      <c r="AD9">
         <v>618469.1080653998</v>
       </c>
-      <c r="Y9">
+      <c r="AE9">
         <v>206156.3693551333</v>
       </c>
-      <c r="Z9">
+      <c r="AF9">
         <v>206156.3693551333</v>
       </c>
-      <c r="AB9">
+      <c r="AH9">
         <v>0.201885088</v>
       </c>
-      <c r="AC9">
+      <c r="AI9">
+        <v>-3.71395106</v>
+      </c>
+      <c r="AJ9">
+        <v>20</v>
+      </c>
+      <c r="AK9">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL9">
         <v>1301893.332158152</v>
       </c>
-      <c r="AD9">
+      <c r="AM9">
         <v>10571.37385712419</v>
       </c>
-      <c r="AF9">
+      <c r="AO9">
         <v>0.201885088</v>
       </c>
-      <c r="AG9">
+      <c r="AP9">
+        <v>183.5489123717407</v>
+      </c>
+      <c r="AQ9">
+        <v>1.75</v>
+      </c>
+      <c r="AR9">
+        <v>9000145.646569863</v>
+      </c>
+      <c r="AS9">
+        <v>18810304.40133101</v>
+      </c>
+      <c r="AT9">
+        <v>6270101.467110337</v>
+      </c>
+      <c r="AU9">
+        <v>3.8</v>
+      </c>
+      <c r="AV9">
         <v>5684509.816152809</v>
       </c>
-      <c r="AH9">
-        <v>9000145.646569863</v>
-      </c>
-      <c r="AI9">
-        <v>18810304.40133101</v>
-      </c>
-      <c r="AJ9">
-        <v>6270101.467110337</v>
-      </c>
-      <c r="AK9">
+      <c r="AW9">
         <v>11954611.28326315</v>
       </c>
-      <c r="AM9">
+      <c r="AY9">
         <v>0.201885088</v>
       </c>
-      <c r="AN9">
+      <c r="AZ9">
+        <v>506625</v>
+      </c>
+      <c r="BA9">
+        <v>21651.80469263002</v>
+      </c>
+      <c r="BB9">
+        <v>18760.83701137813</v>
+      </c>
+      <c r="BC9">
+        <v>39210.14935378029</v>
+      </c>
+      <c r="BD9">
+        <v>13070.04978459343</v>
+      </c>
+      <c r="BE9">
+        <v>0.035</v>
+      </c>
+      <c r="BF9">
         <v>8282.388746912586</v>
       </c>
-      <c r="AO9">
-        <v>18760.83701137813</v>
-      </c>
-      <c r="AP9">
-        <v>39210.14935378029</v>
-      </c>
-      <c r="AQ9">
-        <v>13070.04978459343</v>
-      </c>
-      <c r="AR9">
+      <c r="BG9">
         <v>21352.43853150601</v>
       </c>
-      <c r="AT9">
+      <c r="BI9">
         <v>0.201885088</v>
       </c>
-      <c r="AU9">
+      <c r="BJ9">
         <v>0.6047809151367097</v>
       </c>
-      <c r="AV9">
+      <c r="BK9">
         <v>476954.2050998461</v>
       </c>
-      <c r="AW9">
+      <c r="BL9">
         <v>206156.3693551333</v>
       </c>
-      <c r="AX9">
+      <c r="BM9">
         <v>11954611.28326315</v>
       </c>
-      <c r="AY9">
+      <c r="BN9">
         <v>21352.43853150601</v>
       </c>
-      <c r="AZ9">
+      <c r="BO9">
         <v>10571.37385712419</v>
       </c>
-      <c r="BA9">
+      <c r="BP9">
         <v>55624572.68560776</v>
       </c>
-      <c r="BB9">
+      <c r="BQ9">
         <v>42954927.01550101</v>
       </c>
     </row>
-    <row r="10" spans="1:54">
+    <row r="10" spans="1:69">
       <c r="B10">
         <v>0.210957053</v>
       </c>
@@ -1819,112 +2263,157 @@
         <v>31.24519240752</v>
       </c>
       <c r="O10">
+        <v>2.3625</v>
+      </c>
+      <c r="P10">
         <v>157497.5777995329</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>330114.923067821</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>110038.3076892736</v>
       </c>
-      <c r="R10">
+      <c r="S10">
+        <v>6.78298412104684</v>
+      </c>
+      <c r="T10">
         <v>5375.854065135673</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>456387.6107380806</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>566425.9184273543</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>0.210957053</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
+        <v>113.565</v>
+      </c>
+      <c r="Z10">
+        <v>461.9278409115535</v>
+      </c>
+      <c r="AA10">
+        <v>825.0927958364315</v>
+      </c>
+      <c r="AB10">
+        <v>3.7935</v>
+      </c>
+      <c r="AC10">
         <v>311604.8784831415</v>
       </c>
-      <c r="X10">
+      <c r="AD10">
         <v>651254.1960297658</v>
       </c>
-      <c r="Y10">
+      <c r="AE10">
         <v>217084.7320099219</v>
       </c>
-      <c r="Z10">
+      <c r="AF10">
         <v>217084.7320099219</v>
       </c>
-      <c r="AB10">
+      <c r="AH10">
         <v>0.210957053</v>
       </c>
-      <c r="AC10">
+      <c r="AI10">
+        <v>-4.02112663</v>
+      </c>
+      <c r="AJ10">
+        <v>20</v>
+      </c>
+      <c r="AK10">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL10">
         <v>1409571.064019509</v>
       </c>
-      <c r="AD10">
+      <c r="AM10">
         <v>11445.71703983841</v>
       </c>
-      <c r="AF10">
+      <c r="AO10">
         <v>0.210957053</v>
       </c>
-      <c r="AG10">
+      <c r="AP10">
+        <v>190.6089933230795</v>
+      </c>
+      <c r="AQ10">
+        <v>1.75</v>
+      </c>
+      <c r="AR10">
+        <v>9293565.710558111</v>
+      </c>
+      <c r="AS10">
+        <v>19423552.33506645</v>
+      </c>
+      <c r="AT10">
+        <v>6474517.445022149</v>
+      </c>
+      <c r="AU10">
+        <v>3.8</v>
+      </c>
+      <c r="AV10">
         <v>5903160.523215773</v>
       </c>
-      <c r="AH10">
-        <v>9293565.710558111</v>
-      </c>
-      <c r="AI10">
-        <v>19423552.33506645</v>
-      </c>
-      <c r="AJ10">
-        <v>6474517.445022149</v>
-      </c>
-      <c r="AK10">
+      <c r="AW10">
         <v>12377677.96823792</v>
       </c>
-      <c r="AM10">
+      <c r="AY10">
         <v>0.210957053</v>
       </c>
-      <c r="AN10">
+      <c r="AZ10">
+        <v>506625</v>
+      </c>
+      <c r="BA10">
+        <v>22506.18683079902</v>
+      </c>
+      <c r="BB10">
+        <v>19234.45014231522</v>
+      </c>
+      <c r="BC10">
+        <v>40200.0007974388</v>
+      </c>
+      <c r="BD10">
+        <v>13400.00026581293</v>
+      </c>
+      <c r="BE10">
+        <v>0.035</v>
+      </c>
+      <c r="BF10">
         <v>8609.212543228403</v>
       </c>
-      <c r="AO10">
-        <v>19234.45014231522</v>
-      </c>
-      <c r="AP10">
-        <v>40200.0007974388</v>
-      </c>
-      <c r="AQ10">
-        <v>13400.00026581293</v>
-      </c>
-      <c r="AR10">
+      <c r="BG10">
         <v>22009.21280904134</v>
       </c>
-      <c r="AT10">
+      <c r="BI10">
         <v>0.210957053</v>
       </c>
-      <c r="AU10">
+      <c r="BJ10">
         <v>0.5572073285036533</v>
       </c>
-      <c r="AV10">
+      <c r="BK10">
         <v>566425.9184273543</v>
       </c>
-      <c r="AW10">
+      <c r="BL10">
         <v>217084.7320099219</v>
       </c>
-      <c r="AX10">
+      <c r="BM10">
         <v>12377677.96823792</v>
       </c>
-      <c r="AY10">
+      <c r="BN10">
         <v>22009.21280904134</v>
       </c>
-      <c r="AZ10">
+      <c r="BO10">
         <v>11445.71703983841</v>
       </c>
-      <c r="BA10">
+      <c r="BP10">
         <v>52667110.5830396</v>
       </c>
-      <c r="BB10">
+      <c r="BQ10">
         <v>39472467.03451551</v>
       </c>
     </row>
-    <row r="11" spans="1:54">
+    <row r="11" spans="1:69">
       <c r="B11">
         <v>0.219152969</v>
       </c>
@@ -1962,112 +2451,157 @@
         <v>33.2431238257</v>
       </c>
       <c r="O11">
+        <v>2.3625</v>
+      </c>
+      <c r="P11">
         <v>176830.7823859229</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>370637.3198808943</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>123545.7732936314</v>
       </c>
-      <c r="R11">
+      <c r="S11">
+        <v>8.169146266331586</v>
+      </c>
+      <c r="T11">
         <v>6474.4568733811</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>549654.4116464163</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>673200.1849400478</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>0.219152969</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
+        <v>113.565</v>
+      </c>
+      <c r="Z11">
+        <v>461.9278409115535</v>
+      </c>
+      <c r="AA11">
+        <v>897.0472193417735</v>
+      </c>
+      <c r="AB11">
+        <v>3.7935</v>
+      </c>
+      <c r="AC11">
         <v>329008.6978285754</v>
       </c>
-      <c r="X11">
+      <c r="AD11">
         <v>687628.1784617226</v>
       </c>
-      <c r="Y11">
+      <c r="AE11">
         <v>229209.3928205742</v>
       </c>
-      <c r="Z11">
+      <c r="AF11">
         <v>229209.3928205742</v>
       </c>
-      <c r="AB11">
+      <c r="AH11">
         <v>0.219152969</v>
       </c>
-      <c r="AC11">
+      <c r="AI11">
+        <v>-4.37179973</v>
+      </c>
+      <c r="AJ11">
+        <v>20</v>
+      </c>
+      <c r="AK11">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL11">
         <v>1532496.477758598</v>
       </c>
-      <c r="AD11">
+      <c r="AM11">
         <v>12443.87139939981</v>
       </c>
-      <c r="AF11">
+      <c r="AO11">
         <v>0.219152969</v>
       </c>
-      <c r="AG11">
+      <c r="AP11">
+        <v>200.2105721176915</v>
+      </c>
+      <c r="AQ11">
+        <v>1.75</v>
+      </c>
+      <c r="AR11">
+        <v>9690015.017412441</v>
+      </c>
+      <c r="AS11">
+        <v>20252131.386392</v>
+      </c>
+      <c r="AT11">
+        <v>6750710.462130667</v>
+      </c>
+      <c r="AU11">
+        <v>3.8</v>
+      </c>
+      <c r="AV11">
         <v>6200521.418484906</v>
       </c>
-      <c r="AH11">
-        <v>9690015.017412441</v>
-      </c>
-      <c r="AI11">
-        <v>20252131.386392</v>
-      </c>
-      <c r="AJ11">
-        <v>6750710.462130667</v>
-      </c>
-      <c r="AK11">
+      <c r="AW11">
         <v>12951231.88061557</v>
       </c>
-      <c r="AM11">
+      <c r="AY11">
         <v>0.219152969</v>
       </c>
-      <c r="AN11">
+      <c r="AZ11">
+        <v>506625</v>
+      </c>
+      <c r="BA11">
+        <v>23661.54783961902</v>
+      </c>
+      <c r="BB11">
+        <v>19863.61983501533</v>
+      </c>
+      <c r="BC11">
+        <v>41514.96545518203</v>
+      </c>
+      <c r="BD11">
+        <v>13838.32181839401</v>
+      </c>
+      <c r="BE11">
+        <v>0.035</v>
+      </c>
+      <c r="BF11">
         <v>9051.16872904831</v>
       </c>
-      <c r="AO11">
-        <v>19863.61983501533</v>
-      </c>
-      <c r="AP11">
-        <v>41514.96545518203</v>
-      </c>
-      <c r="AQ11">
-        <v>13838.32181839401</v>
-      </c>
-      <c r="AR11">
+      <c r="BG11">
         <v>22889.49054744232</v>
       </c>
-      <c r="AT11">
+      <c r="BI11">
         <v>0.219152969</v>
       </c>
-      <c r="AU11">
+      <c r="BJ11">
         <v>0.5105229312184871</v>
       </c>
-      <c r="AV11">
+      <c r="BK11">
         <v>673200.1849400478</v>
       </c>
-      <c r="AW11">
+      <c r="BL11">
         <v>229209.3928205742</v>
       </c>
-      <c r="AX11">
+      <c r="BM11">
         <v>12951231.88061557</v>
       </c>
-      <c r="AY11">
+      <c r="BN11">
         <v>22889.49054744232</v>
       </c>
-      <c r="AZ11">
+      <c r="BO11">
         <v>12443.87139939981</v>
       </c>
-      <c r="BA11">
+      <c r="BP11">
         <v>49281706.73745847</v>
       </c>
-      <c r="BB11">
+      <c r="BQ11">
         <v>35392731.91713542</v>
       </c>
     </row>
-    <row r="12" spans="1:54">
+    <row r="12" spans="1:69">
       <c r="B12">
         <v>0.226832325</v>
       </c>
@@ -2105,112 +2639,157 @@
         <v>35.3688099032</v>
       </c>
       <c r="O12">
+        <v>2.3625</v>
+      </c>
+      <c r="P12">
         <v>198537.180397001</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>416133.9301121141</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>138711.3100373714</v>
       </c>
-      <c r="R12">
+      <c r="S12">
+        <v>9.838582477812452</v>
+      </c>
+      <c r="T12">
         <v>7797.56854279026</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>661981.0794139648</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>800692.3894513361</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>0.226832325</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
+        <v>113.565</v>
+      </c>
+      <c r="Z12">
+        <v>461.9278409115535</v>
+      </c>
+      <c r="AA12">
+        <v>978.9722418456679</v>
+      </c>
+      <c r="AB12">
+        <v>3.7935</v>
+      </c>
+      <c r="AC12">
         <v>348239.617474487</v>
       </c>
-      <c r="X12">
+      <c r="AD12">
         <v>727820.8005216777</v>
       </c>
-      <c r="Y12">
+      <c r="AE12">
         <v>242606.9335072259</v>
       </c>
-      <c r="Z12">
+      <c r="AF12">
         <v>242606.9335072259</v>
       </c>
-      <c r="AB12">
+      <c r="AH12">
         <v>0.226832325</v>
       </c>
-      <c r="AC12">
+      <c r="AI12">
+        <v>-4.77106499</v>
+      </c>
+      <c r="AJ12">
+        <v>20</v>
+      </c>
+      <c r="AK12">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL12">
         <v>1672455.451735059</v>
       </c>
-      <c r="AD12">
+      <c r="AM12">
         <v>13580.33826808868</v>
       </c>
-      <c r="AF12">
+      <c r="AO12">
         <v>0.226832325</v>
       </c>
-      <c r="AG12">
+      <c r="AP12">
+        <v>212.1921026175955</v>
+      </c>
+      <c r="AQ12">
+        <v>1.75</v>
+      </c>
+      <c r="AR12">
+        <v>10180763.01715908</v>
+      </c>
+      <c r="AS12">
+        <v>21277794.70586247</v>
+      </c>
+      <c r="AT12">
+        <v>7092598.235287489</v>
+      </c>
+      <c r="AU12">
+        <v>3.8</v>
+      </c>
+      <c r="AV12">
         <v>6571589.418066933</v>
       </c>
-      <c r="AH12">
-        <v>10180763.01715908</v>
-      </c>
-      <c r="AI12">
-        <v>21277794.70586247</v>
-      </c>
-      <c r="AJ12">
-        <v>7092598.235287489</v>
-      </c>
-      <c r="AK12">
+      <c r="AW12">
         <v>13664187.65335442</v>
       </c>
-      <c r="AM12">
+      <c r="AY12">
         <v>0.226832325</v>
       </c>
-      <c r="AN12">
+      <c r="AZ12">
+        <v>506625</v>
+      </c>
+      <c r="BA12">
+        <v>25099.31423614423</v>
+      </c>
+      <c r="BB12">
+        <v>20629.66637332958</v>
+      </c>
+      <c r="BC12">
+        <v>43116.00272025882</v>
+      </c>
+      <c r="BD12">
+        <v>14372.00090675294</v>
+      </c>
+      <c r="BE12">
+        <v>0.035</v>
+      </c>
+      <c r="BF12">
         <v>9601.15245522347</v>
       </c>
-      <c r="AO12">
-        <v>20629.66637332958</v>
-      </c>
-      <c r="AP12">
-        <v>43116.00272025882</v>
-      </c>
-      <c r="AQ12">
-        <v>14372.00090675294</v>
-      </c>
-      <c r="AR12">
+      <c r="BG12">
         <v>23973.15336197641</v>
       </c>
-      <c r="AT12">
+      <c r="BI12">
         <v>0.226832325</v>
       </c>
-      <c r="AU12">
+      <c r="BJ12">
         <v>0.4652026019935012</v>
       </c>
-      <c r="AV12">
+      <c r="BK12">
         <v>800692.3894513361</v>
       </c>
-      <c r="AW12">
+      <c r="BL12">
         <v>242606.9335072259</v>
       </c>
-      <c r="AX12">
+      <c r="BM12">
         <v>13664187.65335442</v>
       </c>
-      <c r="AY12">
+      <c r="BN12">
         <v>23973.15336197641</v>
       </c>
-      <c r="AZ12">
+      <c r="BO12">
         <v>13580.33826808868</v>
       </c>
-      <c r="BA12">
+      <c r="BP12">
         <v>45401056.26941912</v>
       </c>
-      <c r="BB12">
+      <c r="BQ12">
         <v>30656015.80147607</v>
       </c>
     </row>
-    <row r="13" spans="1:54">
+    <row r="13" spans="1:69">
       <c r="B13">
         <v>0.234229634</v>
       </c>
@@ -2248,112 +2827,157 @@
         <v>37.6304205925</v>
       </c>
       <c r="O13">
+        <v>2.3625</v>
+      </c>
+      <c r="P13">
         <v>222908.0960473533</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>467215.3693152525</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>155738.4564384175</v>
       </c>
-      <c r="R13">
+      <c r="S13">
+        <v>11.84918301819073</v>
+      </c>
+      <c r="T13">
         <v>9391.070001067068</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>797262.7136322563</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>953001.1700706738</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>0.234229634</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
+        <v>113.565</v>
+      </c>
+      <c r="Z13">
+        <v>461.9278409115535</v>
+      </c>
+      <c r="AA13">
+        <v>1072.164426809957</v>
+      </c>
+      <c r="AB13">
+        <v>3.7935</v>
+      </c>
+      <c r="AC13">
         <v>369442.9108784483</v>
       </c>
-      <c r="X13">
+      <c r="AD13">
         <v>772135.683735957</v>
       </c>
-      <c r="Y13">
+      <c r="AE13">
         <v>257378.561245319</v>
       </c>
-      <c r="Z13">
+      <c r="AF13">
         <v>257378.561245319</v>
       </c>
-      <c r="AB13">
+      <c r="AH13">
         <v>0.234229634</v>
       </c>
-      <c r="AC13">
+      <c r="AI13">
+        <v>-5.22524127</v>
+      </c>
+      <c r="AJ13">
+        <v>20</v>
+      </c>
+      <c r="AK13">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL13">
         <v>1831663.007517012</v>
       </c>
-      <c r="AD13">
+      <c r="AM13">
         <v>14873.10362103814</v>
       </c>
-      <c r="AF13">
+      <c r="AO13">
         <v>0.234229634</v>
       </c>
-      <c r="AG13">
+      <c r="AP13">
+        <v>226.606314011793</v>
+      </c>
+      <c r="AQ13">
+        <v>1.75</v>
+      </c>
+      <c r="AR13">
+        <v>10765685.78547166</v>
+      </c>
+      <c r="AS13">
+        <v>22500283.29163577</v>
+      </c>
+      <c r="AT13">
+        <v>7500094.430545257</v>
+      </c>
+      <c r="AU13">
+        <v>3.8</v>
+      </c>
+      <c r="AV13">
         <v>7017997.544945228</v>
       </c>
-      <c r="AH13">
-        <v>10765685.78547166</v>
-      </c>
-      <c r="AI13">
-        <v>22500283.29163577</v>
-      </c>
-      <c r="AJ13">
-        <v>7500094.430545257</v>
-      </c>
-      <c r="AK13">
+      <c r="AW13">
         <v>14518091.97549048</v>
       </c>
-      <c r="AM13">
+      <c r="AY13">
         <v>0.234229634</v>
       </c>
-      <c r="AN13">
+      <c r="AZ13">
+        <v>506625</v>
+      </c>
+      <c r="BA13">
+        <v>26826.14057042607</v>
+      </c>
+      <c r="BB13">
+        <v>21526.89166846169</v>
+      </c>
+      <c r="BC13">
+        <v>44991.20358708492</v>
+      </c>
+      <c r="BD13">
+        <v>14997.06786236164</v>
+      </c>
+      <c r="BE13">
+        <v>0.035</v>
+      </c>
+      <c r="BF13">
         <v>10261.70926339551</v>
       </c>
-      <c r="AO13">
-        <v>21526.89166846169</v>
-      </c>
-      <c r="AP13">
-        <v>44991.20358708492</v>
-      </c>
-      <c r="AQ13">
-        <v>14997.06786236164</v>
-      </c>
-      <c r="AR13">
+      <c r="BG13">
         <v>25258.77712575715</v>
       </c>
-      <c r="AT13">
+      <c r="BI13">
         <v>0.234229634</v>
       </c>
-      <c r="AU13">
+      <c r="BJ13">
         <v>0.4218440494204876</v>
       </c>
-      <c r="AV13">
+      <c r="BK13">
         <v>953001.1700706738</v>
       </c>
-      <c r="AW13">
+      <c r="BL13">
         <v>257378.561245319</v>
       </c>
-      <c r="AX13">
+      <c r="BM13">
         <v>14518091.97549048</v>
       </c>
-      <c r="AY13">
+      <c r="BN13">
         <v>25258.77712575715</v>
       </c>
-      <c r="AZ13">
+      <c r="BO13">
         <v>14873.10362103814</v>
       </c>
-      <c r="BA13">
+      <c r="BP13">
         <v>40996887.46230834</v>
       </c>
-      <c r="BB13">
+      <c r="BQ13">
         <v>25228283.87475507</v>
       </c>
     </row>
-    <row r="14" spans="1:54">
+    <row r="14" spans="1:69">
       <c r="B14">
         <v>0.241594175</v>
       </c>
@@ -2391,112 +3015,157 @@
         <v>40.0366466064</v>
       </c>
       <c r="O14">
+        <v>2.3625</v>
+      </c>
+      <c r="P14">
         <v>250270.5964901018</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>524567.1702432535</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>174855.7234144178</v>
       </c>
-      <c r="R14">
+      <c r="S14">
+        <v>14.27066706485932</v>
+      </c>
+      <c r="T14">
         <v>11310.21718225425</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>960190.3128684601</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>1135046.036282878</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>0.241594175</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
+        <v>113.565</v>
+      </c>
+      <c r="Z14">
+        <v>461.9278409115535</v>
+      </c>
+      <c r="AA14">
+        <v>1177.714155120988</v>
+      </c>
+      <c r="AB14">
+        <v>3.7935</v>
+      </c>
+      <c r="AC14">
         <v>392693.1839625348</v>
       </c>
-      <c r="X14">
+      <c r="AD14">
         <v>820728.7544816977</v>
       </c>
-      <c r="Y14">
+      <c r="AE14">
         <v>273576.2514938992</v>
       </c>
-      <c r="Z14">
+      <c r="AF14">
         <v>273576.2514938992</v>
       </c>
-      <c r="AB14">
+      <c r="AH14">
         <v>0.241594175</v>
       </c>
-      <c r="AC14">
+      <c r="AI14">
+        <v>-5.73964259</v>
+      </c>
+      <c r="AJ14">
+        <v>20</v>
+      </c>
+      <c r="AK14">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL14">
         <v>2011981.928725778</v>
       </c>
-      <c r="AD14">
+      <c r="AM14">
         <v>16337.29326125331</v>
       </c>
-      <c r="AF14">
+      <c r="AO14">
         <v>0.241594175</v>
       </c>
-      <c r="AG14">
+      <c r="AP14">
+        <v>243.4182202476024</v>
+      </c>
+      <c r="AQ14">
+        <v>1.75</v>
+      </c>
+      <c r="AR14">
+        <v>11440911.20007046</v>
+      </c>
+      <c r="AS14">
+        <v>23911504.40814725</v>
+      </c>
+      <c r="AT14">
+        <v>7970501.469382417</v>
+      </c>
+      <c r="AU14">
+        <v>3.8</v>
+      </c>
+      <c r="AV14">
         <v>7538662.281068245</v>
       </c>
-      <c r="AH14">
-        <v>11440911.20007046</v>
-      </c>
-      <c r="AI14">
-        <v>23911504.40814725</v>
-      </c>
-      <c r="AJ14">
-        <v>7970501.469382417</v>
-      </c>
-      <c r="AK14">
+      <c r="AW14">
         <v>15509163.75045066</v>
       </c>
-      <c r="AM14">
+      <c r="AY14">
         <v>0.241594175</v>
       </c>
-      <c r="AN14">
+      <c r="AZ14">
+        <v>506625</v>
+      </c>
+      <c r="BA14">
+        <v>28838.24640313952</v>
+      </c>
+      <c r="BB14">
+        <v>22543.68562903248</v>
+      </c>
+      <c r="BC14">
+        <v>47116.30296467787</v>
+      </c>
+      <c r="BD14">
+        <v>15705.43432155929</v>
+      </c>
+      <c r="BE14">
+        <v>0.035</v>
+      </c>
+      <c r="BF14">
         <v>11031.39303539701</v>
       </c>
-      <c r="AO14">
-        <v>22543.68562903248</v>
-      </c>
-      <c r="AP14">
-        <v>47116.30296467787</v>
-      </c>
-      <c r="AQ14">
-        <v>15705.43432155929</v>
-      </c>
-      <c r="AR14">
+      <c r="BG14">
         <v>26736.8273569563</v>
       </c>
-      <c r="AT14">
+      <c r="BI14">
         <v>0.241594175</v>
       </c>
-      <c r="AU14">
+      <c r="BJ14">
         <v>0.3806859056494443</v>
       </c>
-      <c r="AV14">
+      <c r="BK14">
         <v>1135046.036282878</v>
       </c>
-      <c r="AW14">
+      <c r="BL14">
         <v>273576.2514938992</v>
       </c>
-      <c r="AX14">
+      <c r="BM14">
         <v>15509163.75045066</v>
       </c>
-      <c r="AY14">
+      <c r="BN14">
         <v>26736.8273569563</v>
       </c>
-      <c r="AZ14">
+      <c r="BO14">
         <v>16337.29326125331</v>
       </c>
-      <c r="BA14">
+      <c r="BP14">
         <v>35967672.73297894</v>
       </c>
-      <c r="BB14">
+      <c r="BQ14">
         <v>19006812.57413329</v>
       </c>
     </row>
-    <row r="15" spans="1:54">
+    <row r="15" spans="1:69">
       <c r="B15">
         <v>0.249033222</v>
       </c>
@@ -2534,112 +3203,157 @@
         <v>42.5967354434</v>
       </c>
       <c r="O15">
+        <v>2.3625</v>
+      </c>
+      <c r="P15">
         <v>280991.908834664</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>588959.0409174558</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>196319.6803058186</v>
       </c>
-      <c r="R15">
+      <c r="S15">
+        <v>17.18700249855188</v>
+      </c>
+      <c r="T15">
         <v>13621.5588302273</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>1156413.588191172</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>1352733.26849699</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>0.249033222</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
+        <v>113.565</v>
+      </c>
+      <c r="Z15">
+        <v>461.9278409115535</v>
+      </c>
+      <c r="AA15">
+        <v>1297.166807081789</v>
+      </c>
+      <c r="AB15">
+        <v>3.7935</v>
+      </c>
+      <c r="AC15">
         <v>418142.8924686443</v>
       </c>
-      <c r="X15">
+      <c r="AD15">
         <v>873918.6452594665</v>
       </c>
-      <c r="Y15">
+      <c r="AE15">
         <v>291306.2150864888</v>
       </c>
-      <c r="Z15">
+      <c r="AF15">
         <v>291306.2150864888</v>
       </c>
-      <c r="AB15">
+      <c r="AH15">
         <v>0.249033222</v>
       </c>
-      <c r="AC15">
+      <c r="AI15">
+        <v>-6.32180043</v>
+      </c>
+      <c r="AJ15">
+        <v>20</v>
+      </c>
+      <c r="AK15">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL15">
         <v>2216052.310353152</v>
       </c>
-      <c r="AD15">
+      <c r="AM15">
         <v>17994.34476006759</v>
       </c>
-      <c r="AF15">
+      <c r="AO15">
         <v>0.249033222</v>
       </c>
-      <c r="AG15">
+      <c r="AP15">
+        <v>262.8197409826716</v>
+      </c>
+      <c r="AQ15">
+        <v>1.75</v>
+      </c>
+      <c r="AR15">
+        <v>12211521.54281244</v>
+      </c>
+      <c r="AS15">
+        <v>25522080.024478</v>
+      </c>
+      <c r="AT15">
+        <v>8507360.008159334</v>
+      </c>
+      <c r="AU15">
+        <v>3.8</v>
+      </c>
+      <c r="AV15">
         <v>8139527.378233339</v>
       </c>
-      <c r="AH15">
-        <v>12211521.54281244</v>
-      </c>
-      <c r="AI15">
-        <v>25522080.024478</v>
-      </c>
-      <c r="AJ15">
-        <v>8507360.008159334</v>
-      </c>
-      <c r="AK15">
+      <c r="AW15">
         <v>16646887.38639267</v>
       </c>
-      <c r="AM15">
+      <c r="AY15">
         <v>0.249033222</v>
       </c>
-      <c r="AN15">
+      <c r="AZ15">
+        <v>506625</v>
+      </c>
+      <c r="BA15">
+        <v>31158.64479276015</v>
+      </c>
+      <c r="BB15">
+        <v>23681.65832552228</v>
+      </c>
+      <c r="BC15">
+        <v>49494.66590034156</v>
+      </c>
+      <c r="BD15">
+        <v>16498.22196678052</v>
+      </c>
+      <c r="BE15">
+        <v>0.035</v>
+      </c>
+      <c r="BF15">
         <v>11919.00687559989</v>
       </c>
-      <c r="AO15">
-        <v>23681.65832552228</v>
-      </c>
-      <c r="AP15">
-        <v>49494.66590034156</v>
-      </c>
-      <c r="AQ15">
-        <v>16498.22196678052</v>
-      </c>
-      <c r="AR15">
+      <c r="BG15">
         <v>28417.22884238041</v>
       </c>
-      <c r="AT15">
+      <c r="BI15">
         <v>0.249033222</v>
       </c>
-      <c r="AU15">
+      <c r="BJ15">
         <v>0.3420188202190744</v>
       </c>
-      <c r="AV15">
+      <c r="BK15">
         <v>1352733.26849699</v>
       </c>
-      <c r="AW15">
+      <c r="BL15">
         <v>291306.2150864888</v>
       </c>
-      <c r="AX15">
+      <c r="BM15">
         <v>16646887.38639267</v>
       </c>
-      <c r="AY15">
+      <c r="BN15">
         <v>28417.22884238041</v>
       </c>
-      <c r="AZ15">
+      <c r="BO15">
         <v>17994.34476006759</v>
       </c>
-      <c r="BA15">
+      <c r="BP15">
         <v>30263435.04670979</v>
       </c>
-      <c r="BB15">
+      <c r="BQ15">
         <v>11926096.60313119</v>
       </c>
     </row>
-    <row r="16" spans="1:54">
+    <row r="16" spans="1:69">
       <c r="B16">
         <v>0.256694106</v>
       </c>
@@ -2677,112 +3391,157 @@
         <v>45.3205255101</v>
       </c>
       <c r="O16">
+        <v>2.3625</v>
+      </c>
+      <c r="P16">
         <v>315484.3333725845</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>661255.1627489373</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>220418.3875829791</v>
       </c>
-      <c r="R16">
+      <c r="S16">
+        <v>20.6993163202222</v>
+      </c>
+      <c r="T16">
         <v>16405.24314959211</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>1392736.78822058</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>1613155.175803559</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <v>0.256694106</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
+        <v>113.565</v>
+      </c>
+      <c r="Z16">
+        <v>461.9278409115535</v>
+      </c>
+      <c r="AA16">
+        <v>1431.892126974582</v>
+      </c>
+      <c r="AB16">
+        <v>3.7935</v>
+      </c>
+      <c r="AC16">
         <v>445881.1651056793</v>
       </c>
-      <c r="X16">
+      <c r="AD16">
         <v>931891.6350708697</v>
       </c>
-      <c r="Y16">
+      <c r="AE16">
         <v>310630.5450236232</v>
       </c>
-      <c r="Z16">
+      <c r="AF16">
         <v>310630.5450236232</v>
       </c>
-      <c r="AB16">
+      <c r="AH16">
         <v>0.256694106</v>
       </c>
-      <c r="AC16">
+      <c r="AI16">
+        <v>-6.9783903</v>
+      </c>
+      <c r="AJ16">
+        <v>20</v>
+      </c>
+      <c r="AK16">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL16">
         <v>2446214.194531451</v>
       </c>
-      <c r="AD16">
+      <c r="AM16">
         <v>19863.25925959538</v>
       </c>
-      <c r="AF16">
+      <c r="AO16">
         <v>0.256694106</v>
       </c>
-      <c r="AG16">
+      <c r="AP16">
+        <v>284.9315022468438</v>
+      </c>
+      <c r="AQ16">
+        <v>1.75</v>
+      </c>
+      <c r="AR16">
+        <v>13079462.35123444</v>
+      </c>
+      <c r="AS16">
+        <v>27336076.31407998</v>
+      </c>
+      <c r="AT16">
+        <v>9112025.438026659</v>
+      </c>
+      <c r="AU16">
+        <v>3.8</v>
+      </c>
+      <c r="AV16">
         <v>8824328.624584751</v>
       </c>
-      <c r="AH16">
-        <v>13079462.35123444</v>
-      </c>
-      <c r="AI16">
-        <v>27336076.31407998</v>
-      </c>
-      <c r="AJ16">
-        <v>9112025.438026659</v>
-      </c>
-      <c r="AK16">
+      <c r="AW16">
         <v>17936354.06261141</v>
       </c>
-      <c r="AM16">
+      <c r="AY16">
         <v>0.256694106</v>
       </c>
-      <c r="AN16">
+      <c r="AZ16">
+        <v>506625</v>
+      </c>
+      <c r="BA16">
+        <v>33801.83280800962</v>
+      </c>
+      <c r="BB16">
+        <v>24937.3865170203</v>
+      </c>
+      <c r="BC16">
+        <v>52119.13782057241</v>
+      </c>
+      <c r="BD16">
+        <v>17373.0459401908</v>
+      </c>
+      <c r="BE16">
+        <v>0.035</v>
+      </c>
+      <c r="BF16">
         <v>12930.09629674768</v>
       </c>
-      <c r="AO16">
-        <v>24937.3865170203</v>
-      </c>
-      <c r="AP16">
-        <v>52119.13782057241</v>
-      </c>
-      <c r="AQ16">
-        <v>17373.0459401908</v>
-      </c>
-      <c r="AR16">
+      <c r="BG16">
         <v>30303.14223693848</v>
       </c>
-      <c r="AT16">
+      <c r="BI16">
         <v>0.256694106</v>
       </c>
-      <c r="AU16">
+      <c r="BJ16">
         <v>0.3060460902552287</v>
       </c>
-      <c r="AV16">
+      <c r="BK16">
         <v>1613155.175803559</v>
       </c>
-      <c r="AW16">
+      <c r="BL16">
         <v>310630.5450236232</v>
       </c>
-      <c r="AX16">
+      <c r="BM16">
         <v>17936354.06261141</v>
       </c>
-      <c r="AY16">
+      <c r="BN16">
         <v>30303.14223693848</v>
       </c>
-      <c r="AZ16">
+      <c r="BO16">
         <v>19863.25925959538</v>
       </c>
-      <c r="BA16">
+      <c r="BP16">
         <v>23791991.16428832</v>
       </c>
-      <c r="BB16">
+      <c r="BQ16">
         <v>3881684.979353189</v>
       </c>
     </row>
-    <row r="17" spans="2:54">
+    <row r="17" spans="2:69">
       <c r="B17">
         <v>0.26458994</v>
       </c>
@@ -2820,112 +3579,157 @@
         <v>48.21848483700001</v>
       </c>
       <c r="O17">
+        <v>2.3625</v>
+      </c>
+      <c r="P17">
         <v>354210.788071234</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>742425.8117973065</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>247475.2705991022</v>
       </c>
-      <c r="R17">
+      <c r="S17">
+        <v>24.92940244529374</v>
+      </c>
+      <c r="T17">
         <v>19757.79790801755</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>1677354.71823274</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>1924829.988831843</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <v>0.26458994</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
+        <v>113.565</v>
+      </c>
+      <c r="Z17">
+        <v>461.9278409115535</v>
+      </c>
+      <c r="AA17">
+        <v>1583.732810523998</v>
+      </c>
+      <c r="AB17">
+        <v>3.7935</v>
+      </c>
+      <c r="AC17">
         <v>476069.8474857617</v>
       </c>
-      <c r="X17">
+      <c r="AD17">
         <v>994985.9812452418</v>
       </c>
-      <c r="Y17">
+      <c r="AE17">
         <v>331661.9937484139</v>
       </c>
-      <c r="Z17">
+      <c r="AF17">
         <v>331661.9937484139</v>
       </c>
-      <c r="AB17">
+      <c r="AH17">
         <v>0.26458994</v>
       </c>
-      <c r="AC17">
+      <c r="AI17">
+        <v>-7.71839266</v>
+      </c>
+      <c r="AJ17">
+        <v>20</v>
+      </c>
+      <c r="AK17">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL17">
         <v>2705615.603624143</v>
       </c>
-      <c r="AD17">
+      <c r="AM17">
         <v>21969.59870142804</v>
       </c>
-      <c r="AF17">
+      <c r="AO17">
         <v>0.26458994</v>
       </c>
-      <c r="AG17">
+      <c r="AP17">
+        <v>310.0804476003052</v>
+      </c>
+      <c r="AQ17">
+        <v>1.75</v>
+      </c>
+      <c r="AR17">
+        <v>14054445.61737357</v>
+      </c>
+      <c r="AS17">
+        <v>29373791.34031076</v>
+      </c>
+      <c r="AT17">
+        <v>9791263.780103587</v>
+      </c>
+      <c r="AU17">
+        <v>3.8</v>
+      </c>
+      <c r="AV17">
         <v>9603191.462181453</v>
       </c>
-      <c r="AH17">
-        <v>14054445.61737357</v>
-      </c>
-      <c r="AI17">
-        <v>29373791.34031076</v>
-      </c>
-      <c r="AJ17">
-        <v>9791263.780103587</v>
-      </c>
-      <c r="AK17">
+      <c r="AW17">
         <v>19394455.24228504</v>
       </c>
-      <c r="AM17">
+      <c r="AY17">
         <v>0.26458994</v>
       </c>
-      <c r="AN17">
+      <c r="AZ17">
+        <v>506625</v>
+      </c>
+      <c r="BA17">
+        <v>36806.75680636014</v>
+      </c>
+      <c r="BB17">
+        <v>26318.16516098201</v>
+      </c>
+      <c r="BC17">
+        <v>55004.96518645241</v>
+      </c>
+      <c r="BD17">
+        <v>18334.98839548414</v>
+      </c>
+      <c r="BE17">
+        <v>0.035</v>
+      </c>
+      <c r="BF17">
         <v>14079.55931207487</v>
       </c>
-      <c r="AO17">
-        <v>26318.16516098201</v>
-      </c>
-      <c r="AP17">
-        <v>55004.96518645241</v>
-      </c>
-      <c r="AQ17">
-        <v>18334.98839548414</v>
-      </c>
-      <c r="AR17">
+      <c r="BG17">
         <v>32414.54770755901</v>
       </c>
-      <c r="AT17">
+      <c r="BI17">
         <v>0.26458994</v>
       </c>
-      <c r="AU17">
+      <c r="BJ17">
         <v>0.2728311446159101</v>
       </c>
-      <c r="AV17">
+      <c r="BK17">
         <v>1924829.988831843</v>
       </c>
-      <c r="AW17">
+      <c r="BL17">
         <v>331661.9937484139</v>
       </c>
-      <c r="AX17">
+      <c r="BM17">
         <v>19394455.24228504</v>
       </c>
-      <c r="AY17">
+      <c r="BN17">
         <v>32414.54770755901</v>
       </c>
-      <c r="AZ17">
+      <c r="BO17">
         <v>21969.59870142804</v>
       </c>
-      <c r="BA17">
+      <c r="BP17">
         <v>16461951.60945462</v>
       </c>
-      <c r="BB17">
+      <c r="BQ17">
         <v>-5243379.761819664</v>
       </c>
     </row>
-    <row r="18" spans="2:54">
+    <row r="18" spans="2:69">
       <c r="B18">
         <v>0.272747756</v>
       </c>
@@ -2963,112 +3767,157 @@
         <v>51.3017504505</v>
       </c>
       <c r="O18">
+        <v>2.3625</v>
+      </c>
+      <c r="P18">
         <v>397691.0106936779</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>833560.358413949</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>277853.4528046497</v>
       </c>
-      <c r="R18">
+      <c r="S18">
+        <v>30.02394401375541</v>
+      </c>
+      <c r="T18">
         <v>23795.47682810185</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>2020136.83488573</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>2297990.28769038</v>
       </c>
-      <c r="V18">
+      <c r="X18">
         <v>0.272747756</v>
       </c>
-      <c r="W18">
+      <c r="Y18">
+        <v>113.565</v>
+      </c>
+      <c r="Z18">
+        <v>461.9278409115535</v>
+      </c>
+      <c r="AA18">
+        <v>1754.577470751692</v>
+      </c>
+      <c r="AB18">
+        <v>3.7935</v>
+      </c>
+      <c r="AC18">
         <v>508849.7765000808</v>
       </c>
-      <c r="X18">
+      <c r="AD18">
         <v>1063496.032885169</v>
       </c>
-      <c r="Y18">
+      <c r="AE18">
         <v>354498.6776283896</v>
       </c>
-      <c r="Z18">
+      <c r="AF18">
         <v>354498.6776283896</v>
       </c>
-      <c r="AB18">
+      <c r="AH18">
         <v>0.272747756</v>
       </c>
-      <c r="AC18">
+      <c r="AI18">
+        <v>-8.551011750000001</v>
+      </c>
+      <c r="AJ18">
+        <v>20</v>
+      </c>
+      <c r="AK18">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL18">
         <v>2997483.004132804</v>
       </c>
-      <c r="AD18">
+      <c r="AM18">
         <v>24339.56199355837</v>
       </c>
-      <c r="AF18">
+      <c r="AO18">
         <v>0.272747756</v>
       </c>
-      <c r="AG18">
+      <c r="AP18">
+        <v>338.600218637203</v>
+      </c>
+      <c r="AQ18">
+        <v>1.75</v>
+      </c>
+      <c r="AR18">
+        <v>15145884.60024867</v>
+      </c>
+      <c r="AS18">
+        <v>31654898.81451973</v>
+      </c>
+      <c r="AT18">
+        <v>10551632.93817324</v>
+      </c>
+      <c r="AU18">
+        <v>3.8</v>
+      </c>
+      <c r="AV18">
         <v>10486448.77119418</v>
       </c>
-      <c r="AH18">
-        <v>15145884.60024867</v>
-      </c>
-      <c r="AI18">
-        <v>31654898.81451973</v>
-      </c>
-      <c r="AJ18">
-        <v>10551632.93817324</v>
-      </c>
-      <c r="AK18">
+      <c r="AW18">
         <v>21038081.70936742</v>
       </c>
-      <c r="AM18">
+      <c r="AY18">
         <v>0.272747756</v>
       </c>
-      <c r="AN18">
+      <c r="AZ18">
+        <v>506625</v>
+      </c>
+      <c r="BA18">
+        <v>40213.11763406314</v>
+      </c>
+      <c r="BB18">
+        <v>27829.94654180955</v>
+      </c>
+      <c r="BC18">
+        <v>58164.58827238195</v>
+      </c>
+      <c r="BD18">
+        <v>19388.19609079398</v>
+      </c>
+      <c r="BE18">
+        <v>0.035</v>
+      </c>
+      <c r="BF18">
         <v>15382.58254675675</v>
       </c>
-      <c r="AO18">
-        <v>27829.94654180955</v>
-      </c>
-      <c r="AP18">
-        <v>58164.58827238195</v>
-      </c>
-      <c r="AQ18">
-        <v>19388.19609079398</v>
-      </c>
-      <c r="AR18">
+      <c r="BG18">
         <v>34770.77863755073</v>
       </c>
-      <c r="AT18">
+      <c r="BI18">
         <v>0.272747756</v>
       </c>
-      <c r="AU18">
+      <c r="BJ18">
         <v>0.242387573515793</v>
       </c>
-      <c r="AV18">
+      <c r="BK18">
         <v>2297990.28769038</v>
       </c>
-      <c r="AW18">
+      <c r="BL18">
         <v>354498.6776283896</v>
       </c>
-      <c r="AX18">
+      <c r="BM18">
         <v>21038081.70936742</v>
       </c>
-      <c r="AY18">
+      <c r="BN18">
         <v>34770.77863755073</v>
       </c>
-      <c r="AZ18">
+      <c r="BO18">
         <v>24339.56199355837</v>
       </c>
-      <c r="BA18">
+      <c r="BP18">
         <v>8163884.187258647</v>
       </c>
-      <c r="BB18">
+      <c r="BQ18">
         <v>-15585796.82805865</v>
       </c>
     </row>
-    <row r="19" spans="2:54">
+    <row r="19" spans="2:69">
       <c r="B19">
         <v>0.281204849</v>
       </c>
@@ -3106,112 +3955,157 @@
         <v>54.58217102590001</v>
       </c>
       <c r="O19">
+        <v>2.3625</v>
+      </c>
+      <c r="P19">
         <v>446508.5305687772</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>935881.880072157</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>311960.626690719</v>
       </c>
-      <c r="R19">
+      <c r="S19">
+        <v>36.15959919017912</v>
+      </c>
+      <c r="T19">
         <v>28658.29033817647</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>2432969.440168106</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>2744930.066858825</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <v>0.281204849</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
+        <v>113.565</v>
+      </c>
+      <c r="Z19">
+        <v>461.9278409115535</v>
+      </c>
+      <c r="AA19">
+        <v>1946.328220093799</v>
+      </c>
+      <c r="AB19">
+        <v>3.7935</v>
+      </c>
+      <c r="AC19">
         <v>544337.0348420927</v>
       </c>
-      <c r="X19">
+      <c r="AD19">
         <v>1137664.402819974</v>
       </c>
-      <c r="Y19">
+      <c r="AE19">
         <v>379221.4676066579</v>
       </c>
-      <c r="Z19">
+      <c r="AF19">
         <v>379221.4676066579</v>
       </c>
-      <c r="AB19">
+      <c r="AH19">
         <v>0.281204849</v>
       </c>
-      <c r="AC19">
+      <c r="AI19">
+        <v>-9.4855176</v>
+      </c>
+      <c r="AJ19">
+        <v>20</v>
+      </c>
+      <c r="AK19">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL19">
         <v>3325065.9246729</v>
       </c>
-      <c r="AD19">
+      <c r="AM19">
         <v>26999.53530834395</v>
       </c>
-      <c r="AF19">
+      <c r="AO19">
         <v>0.281204849</v>
       </c>
-      <c r="AG19">
+      <c r="AP19">
+        <v>370.8353229166096</v>
+      </c>
+      <c r="AQ19">
+        <v>1.75</v>
+      </c>
+      <c r="AR19">
+        <v>16363056.32005765</v>
+      </c>
+      <c r="AS19">
+        <v>34198787.70892049</v>
+      </c>
+      <c r="AT19">
+        <v>11399595.9029735</v>
+      </c>
+      <c r="AU19">
+        <v>3.8</v>
+      </c>
+      <c r="AV19">
         <v>11484769.9507274</v>
       </c>
-      <c r="AH19">
-        <v>16363056.32005765</v>
-      </c>
-      <c r="AI19">
-        <v>34198787.70892049</v>
-      </c>
-      <c r="AJ19">
-        <v>11399595.9029735</v>
-      </c>
-      <c r="AK19">
+      <c r="AW19">
         <v>22884365.8537009</v>
       </c>
-      <c r="AM19">
+      <c r="AY19">
         <v>0.281204849</v>
       </c>
-      <c r="AN19">
+      <c r="AZ19">
+        <v>506625</v>
+      </c>
+      <c r="BA19">
+        <v>44061.93225990206</v>
+      </c>
+      <c r="BB19">
+        <v>29477.69956212217</v>
+      </c>
+      <c r="BC19">
+        <v>61608.39208483533</v>
+      </c>
+      <c r="BD19">
+        <v>20536.13069494511</v>
+      </c>
+      <c r="BE19">
+        <v>0.035</v>
+      </c>
+      <c r="BF19">
         <v>16854.85607769487</v>
       </c>
-      <c r="AO19">
-        <v>29477.69956212217</v>
-      </c>
-      <c r="AP19">
-        <v>61608.39208483533</v>
-      </c>
-      <c r="AQ19">
-        <v>20536.13069494511</v>
-      </c>
-      <c r="AR19">
+      <c r="BG19">
         <v>37390.98677263998</v>
       </c>
-      <c r="AT19">
+      <c r="BI19">
         <v>0.281204849</v>
       </c>
-      <c r="AU19">
+      <c r="BJ19">
         <v>0.2146805353839503</v>
       </c>
-      <c r="AV19">
+      <c r="BK19">
         <v>2744930.066858825</v>
       </c>
-      <c r="AW19">
+      <c r="BL19">
         <v>379221.4676066579</v>
       </c>
-      <c r="AX19">
+      <c r="BM19">
         <v>22884365.8537009</v>
       </c>
-      <c r="AY19">
+      <c r="BN19">
         <v>37390.98677263998</v>
       </c>
-      <c r="AZ19">
+      <c r="BO19">
         <v>26999.53530834395</v>
       </c>
-      <c r="BA19">
+      <c r="BP19">
         <v>-1200876.337512927</v>
       </c>
-      <c r="BB19">
+      <c r="BQ19">
         <v>-27273784.24776029</v>
       </c>
     </row>
-    <row r="20" spans="2:54">
+    <row r="20" spans="2:69">
       <c r="B20">
         <v>0.290036478</v>
       </c>
@@ -3249,112 +4143,157 @@
         <v>58.0723534776</v>
       </c>
       <c r="O20">
+        <v>2.3625</v>
+      </c>
+      <c r="P20">
         <v>501318.5149896595</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>1050763.607418326</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>350254.5358061088</v>
       </c>
-      <c r="R20">
+      <c r="S20">
+        <v>43.54912874975785</v>
+      </c>
+      <c r="T20">
         <v>34514.86199062059</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <v>2930167.971078727</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <v>3280422.506884836</v>
       </c>
-      <c r="V20">
+      <c r="X20">
         <v>0.290036478</v>
       </c>
-      <c r="W20">
+      <c r="Y20">
+        <v>113.565</v>
+      </c>
+      <c r="Z20">
+        <v>461.9278409115535</v>
+      </c>
+      <c r="AA20">
+        <v>2160.820804507988</v>
+      </c>
+      <c r="AB20">
+        <v>3.7935</v>
+      </c>
+      <c r="AC20">
         <v>582612.2618702232</v>
       </c>
-      <c r="X20">
+      <c r="AD20">
         <v>1217659.627308766</v>
       </c>
-      <c r="Y20">
+      <c r="AE20">
         <v>405886.5424362554</v>
       </c>
-      <c r="Z20">
+      <c r="AF20">
         <v>405886.5424362554</v>
       </c>
-      <c r="AB20">
+      <c r="AH20">
         <v>0.290036478</v>
       </c>
-      <c r="AC20">
+      <c r="AI20">
+        <v>-10.5308568</v>
+      </c>
+      <c r="AJ20">
+        <v>20</v>
+      </c>
+      <c r="AK20">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL20">
         <v>3691500.514773164</v>
       </c>
-      <c r="AD20">
+      <c r="AM20">
         <v>29974.98417995809</v>
       </c>
-      <c r="AF20">
+      <c r="AO20">
         <v>0.290036478</v>
       </c>
-      <c r="AG20">
+      <c r="AP20">
+        <v>407.0867171282856</v>
+      </c>
+      <c r="AQ20">
+        <v>1.75</v>
+      </c>
+      <c r="AR20">
+        <v>17713092.3388423</v>
+      </c>
+      <c r="AS20">
+        <v>37020362.98818041</v>
+      </c>
+      <c r="AT20">
+        <v>12340120.99606013</v>
+      </c>
+      <c r="AU20">
+        <v>3.8</v>
+      </c>
+      <c r="AV20">
         <v>12607475.629463</v>
       </c>
-      <c r="AH20">
-        <v>17713092.3388423</v>
-      </c>
-      <c r="AI20">
-        <v>37020362.98818041</v>
-      </c>
-      <c r="AJ20">
-        <v>12340120.99606013</v>
-      </c>
-      <c r="AK20">
+      <c r="AW20">
         <v>24947596.62552314</v>
       </c>
-      <c r="AM20">
+      <c r="AY20">
         <v>0.290036478</v>
       </c>
-      <c r="AN20">
+      <c r="AZ20">
+        <v>506625</v>
+      </c>
+      <c r="BA20">
+        <v>48389.00258135668</v>
+      </c>
+      <c r="BB20">
+        <v>31262.86478673698</v>
+      </c>
+      <c r="BC20">
+        <v>65339.38740428028</v>
+      </c>
+      <c r="BD20">
+        <v>21779.79580142676</v>
+      </c>
+      <c r="BE20">
+        <v>0.035</v>
+      </c>
+      <c r="BF20">
         <v>18510.07507889499</v>
       </c>
-      <c r="AO20">
-        <v>31262.86478673698</v>
-      </c>
-      <c r="AP20">
-        <v>65339.38740428028</v>
-      </c>
-      <c r="AQ20">
-        <v>21779.79580142676</v>
-      </c>
-      <c r="AR20">
+      <c r="BG20">
         <v>40289.87088032175</v>
       </c>
-      <c r="AT20">
+      <c r="BI20">
         <v>0.290036478</v>
       </c>
-      <c r="AU20">
+      <c r="BJ20">
         <v>0.1896335943905795</v>
       </c>
-      <c r="AV20">
+      <c r="BK20">
         <v>3280422.506884836</v>
       </c>
-      <c r="AW20">
+      <c r="BL20">
         <v>405886.5424362554</v>
       </c>
-      <c r="AX20">
+      <c r="BM20">
         <v>24947596.62552314</v>
       </c>
-      <c r="AY20">
+      <c r="BN20">
         <v>40289.87088032175</v>
       </c>
-      <c r="AZ20">
+      <c r="BO20">
         <v>29974.98417995809</v>
       </c>
-      <c r="BA20">
+      <c r="BP20">
         <v>-11742332.9411283</v>
       </c>
-      <c r="BB20">
+      <c r="BQ20">
         <v>-40446503.47103281</v>
       </c>
     </row>
-    <row r="21" spans="2:54">
+    <row r="21" spans="2:69">
       <c r="B21">
         <v>0.299203208</v>
       </c>
@@ -3392,112 +4331,157 @@
         <v>61.7857111898</v>
       </c>
       <c r="O21">
+        <v>2.3625</v>
+      </c>
+      <c r="P21">
         <v>562856.5606011021</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>1179747.35101991</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>393249.1170066367</v>
       </c>
-      <c r="R21">
+      <c r="S21">
+        <v>52.44877392163811</v>
+      </c>
+      <c r="T21">
         <v>41568.27577159429</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <v>3528973.411859307</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <v>3922222.528865944</v>
       </c>
-      <c r="V21">
+      <c r="X21">
         <v>0.299203208</v>
       </c>
-      <c r="W21">
+      <c r="Y21">
+        <v>113.565</v>
+      </c>
+      <c r="Z21">
+        <v>461.9278409115535</v>
+      </c>
+      <c r="AA21">
+        <v>2400.541227657336</v>
+      </c>
+      <c r="AB21">
+        <v>3.7935</v>
+      </c>
+      <c r="AC21">
         <v>623847.4315894215</v>
       </c>
-      <c r="X21">
+      <c r="AD21">
         <v>1303841.132021891</v>
       </c>
-      <c r="Y21">
+      <c r="AE21">
         <v>434613.7106739635</v>
       </c>
-      <c r="Z21">
+      <c r="AF21">
         <v>434613.7106739635</v>
       </c>
-      <c r="AB21">
+      <c r="AH21">
         <v>0.299203208</v>
       </c>
-      <c r="AC21">
+      <c r="AI21">
+        <v>-11.699145</v>
+      </c>
+      <c r="AJ21">
+        <v>20</v>
+      </c>
+      <c r="AK21">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL21">
         <v>4101033.810459362</v>
       </c>
-      <c r="AD21">
+      <c r="AM21">
         <v>33300.39454093001</v>
       </c>
-      <c r="AF21">
+      <c r="AO21">
         <v>0.299203208</v>
       </c>
-      <c r="AG21">
+      <c r="AP21">
+        <v>447.9136601520391</v>
+      </c>
+      <c r="AQ21">
+        <v>1.75</v>
+      </c>
+      <c r="AR21">
+        <v>19212136.15453766</v>
+      </c>
+      <c r="AS21">
+        <v>40153364.5629837</v>
+      </c>
+      <c r="AT21">
+        <v>13384454.8543279</v>
+      </c>
+      <c r="AU21">
+        <v>3.8</v>
+      </c>
+      <c r="AV21">
         <v>13871886.05490865</v>
       </c>
-      <c r="AH21">
-        <v>19212136.15453766</v>
-      </c>
-      <c r="AI21">
-        <v>40153364.5629837</v>
-      </c>
-      <c r="AJ21">
-        <v>13384454.8543279</v>
-      </c>
-      <c r="AK21">
+      <c r="AW21">
         <v>27256340.90923655</v>
       </c>
-      <c r="AM21">
+      <c r="AY21">
         <v>0.299203208</v>
       </c>
-      <c r="AN21">
+      <c r="AZ21">
+        <v>506625</v>
+      </c>
+      <c r="BA21">
+        <v>53260.69031750856</v>
+      </c>
+      <c r="BB21">
+        <v>33197.9064442075</v>
+      </c>
+      <c r="BC21">
+        <v>69383.62446839368</v>
+      </c>
+      <c r="BD21">
+        <v>23127.87482279789</v>
+      </c>
+      <c r="BE21">
+        <v>0.035</v>
+      </c>
+      <c r="BF21">
         <v>20373.624665508</v>
       </c>
-      <c r="AO21">
-        <v>33197.9064442075</v>
-      </c>
-      <c r="AP21">
-        <v>69383.62446839368</v>
-      </c>
-      <c r="AQ21">
-        <v>23127.87482279789</v>
-      </c>
-      <c r="AR21">
+      <c r="BG21">
         <v>43501.4994883059</v>
       </c>
-      <c r="AT21">
+      <c r="BI21">
         <v>0.299203208</v>
       </c>
-      <c r="AU21">
+      <c r="BJ21">
         <v>0.1670969448320862</v>
       </c>
-      <c r="AV21">
+      <c r="BK21">
         <v>3922222.528865944</v>
       </c>
-      <c r="AW21">
+      <c r="BL21">
         <v>434613.7106739635</v>
       </c>
-      <c r="AX21">
+      <c r="BM21">
         <v>27256340.90923655</v>
       </c>
-      <c r="AY21">
+      <c r="BN21">
         <v>43501.4994883059</v>
       </c>
-      <c r="AZ21">
+      <c r="BO21">
         <v>33300.39454093001</v>
       </c>
-      <c r="BA21">
+      <c r="BP21">
         <v>-23618583.18584524</v>
       </c>
-      <c r="BB21">
+      <c r="BQ21">
         <v>-55308562.22865093</v>
       </c>
     </row>
-    <row r="22" spans="2:54">
+    <row r="22" spans="2:69">
       <c r="B22">
         <v>0.308685202</v>
       </c>
@@ -3535,112 +4519,157 @@
         <v>65.7365145439</v>
       </c>
       <c r="O22">
+        <v>2.3625</v>
+      </c>
+      <c r="P22">
         <v>631948.5488969632</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>1324564.158488035</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>441521.3861626783</v>
       </c>
-      <c r="R22">
+      <c r="S22">
+        <v>63.16713947303042</v>
+      </c>
+      <c r="T22">
         <v>50063.11638935026</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <v>4250149.985137548</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <v>4691671.371300227</v>
       </c>
-      <c r="V22">
+      <c r="X22">
         <v>0.308685202</v>
       </c>
-      <c r="W22">
+      <c r="Y22">
+        <v>113.565</v>
+      </c>
+      <c r="Z22">
+        <v>461.9278409115535</v>
+      </c>
+      <c r="AA22">
+        <v>2668.030186455088</v>
+      </c>
+      <c r="AB22">
+        <v>3.7935</v>
+      </c>
+      <c r="AC22">
         <v>668192.2155908439</v>
       </c>
-      <c r="X22">
+      <c r="AD22">
         <v>1396521.730584864</v>
       </c>
-      <c r="Y22">
+      <c r="AE22">
         <v>465507.2435282879</v>
       </c>
-      <c r="Z22">
+      <c r="AF22">
         <v>465507.2435282879</v>
       </c>
-      <c r="AB22">
+      <c r="AH22">
         <v>0.308685202</v>
       </c>
-      <c r="AC22">
+      <c r="AI22">
+        <v>-13.0027644</v>
+      </c>
+      <c r="AJ22">
+        <v>20</v>
+      </c>
+      <c r="AK22">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL22">
         <v>4558006.284547918</v>
       </c>
-      <c r="AD22">
+      <c r="AM22">
         <v>37011.01103052909</v>
       </c>
-      <c r="AF22">
+      <c r="AO22">
         <v>0.308685202</v>
       </c>
-      <c r="AG22">
+      <c r="AP22">
+        <v>493.9101341854569</v>
+      </c>
+      <c r="AQ22">
+        <v>1.75</v>
+      </c>
+      <c r="AR22">
+        <v>20876670.70983623</v>
+      </c>
+      <c r="AS22">
+        <v>43632241.78355771</v>
+      </c>
+      <c r="AT22">
+        <v>14544080.59451924</v>
+      </c>
+      <c r="AU22">
+        <v>3.8</v>
+      </c>
+      <c r="AV22">
         <v>15296396.8557236</v>
       </c>
-      <c r="AH22">
-        <v>20876670.70983623</v>
-      </c>
-      <c r="AI22">
-        <v>43632241.78355771</v>
-      </c>
-      <c r="AJ22">
-        <v>14544080.59451924</v>
-      </c>
-      <c r="AK22">
+      <c r="AW22">
         <v>29840477.45024283</v>
       </c>
-      <c r="AM22">
+      <c r="AY22">
         <v>0.308685202</v>
       </c>
-      <c r="AN22">
+      <c r="AZ22">
+        <v>506625</v>
+      </c>
+      <c r="BA22">
+        <v>58747.54564857664</v>
+      </c>
+      <c r="BB22">
+        <v>35294.33951191708</v>
+      </c>
+      <c r="BC22">
+        <v>73765.16957990669</v>
+      </c>
+      <c r="BD22">
+        <v>24588.3898599689</v>
+      </c>
+      <c r="BE22">
+        <v>0.035</v>
+      </c>
+      <c r="BF22">
         <v>22472.492150002</v>
       </c>
-      <c r="AO22">
-        <v>35294.33951191708</v>
-      </c>
-      <c r="AP22">
-        <v>73765.16957990669</v>
-      </c>
-      <c r="AQ22">
-        <v>24588.3898599689</v>
-      </c>
-      <c r="AR22">
+      <c r="BG22">
         <v>47060.8820099709</v>
       </c>
-      <c r="AT22">
+      <c r="BI22">
         <v>0.308685202</v>
       </c>
-      <c r="AU22">
+      <c r="BJ22">
         <v>0.1469118817530839</v>
       </c>
-      <c r="AV22">
+      <c r="BK22">
         <v>4691671.371300227</v>
       </c>
-      <c r="AW22">
+      <c r="BL22">
         <v>465507.2435282879</v>
       </c>
-      <c r="AX22">
+      <c r="BM22">
         <v>29840477.45024283</v>
       </c>
-      <c r="AY22">
+      <c r="BN22">
         <v>47060.8820099709</v>
       </c>
-      <c r="AZ22">
+      <c r="BO22">
         <v>37011.01103052909</v>
       </c>
-      <c r="BA22">
+      <c r="BP22">
         <v>-36969152.27268095</v>
       </c>
-      <c r="BB22">
+      <c r="BQ22">
         <v>-72050880.23079279</v>
       </c>
     </row>
-    <row r="23" spans="2:54">
+    <row r="23" spans="2:69">
       <c r="B23">
         <v>0.3184858</v>
       </c>
@@ -3678,112 +4707,157 @@
         <v>69.9399463674</v>
       </c>
       <c r="O23">
+        <v>2.3625</v>
+      </c>
+      <c r="P23">
         <v>709521.7385516517</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>1487157.564004262</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>495719.1880014206</v>
       </c>
-      <c r="R23">
+      <c r="S23">
+        <v>76.07589581992706</v>
+      </c>
+      <c r="T23">
         <v>60293.9512320832</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <v>5118705.234807064</v>
       </c>
-      <c r="T23">
+      <c r="V23">
         <v>5614424.422808484</v>
       </c>
-      <c r="V23">
+      <c r="X23">
         <v>0.3184858</v>
       </c>
-      <c r="W23">
+      <c r="Y23">
+        <v>113.565</v>
+      </c>
+      <c r="Z23">
+        <v>461.9278409115535</v>
+      </c>
+      <c r="AA23">
+        <v>2965.742670177665</v>
+      </c>
+      <c r="AB23">
+        <v>3.7935</v>
+      </c>
+      <c r="AC23">
         <v>715754.6600027167</v>
       </c>
-      <c r="X23">
+      <c r="AD23">
         <v>1495927.239405678</v>
       </c>
-      <c r="Y23">
+      <c r="AE23">
         <v>498642.4131352259</v>
       </c>
-      <c r="Z23">
+      <c r="AF23">
         <v>498642.4131352259</v>
       </c>
-      <c r="AB23">
+      <c r="AH23">
         <v>0.3184858</v>
       </c>
-      <c r="AC23">
+      <c r="AI23">
+        <v>-14.4536795</v>
+      </c>
+      <c r="AJ23">
+        <v>20</v>
+      </c>
+      <c r="AK23">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL23">
         <v>5066611.988743056</v>
       </c>
-      <c r="AD23">
+      <c r="AM23">
         <v>41140.88934859361</v>
       </c>
-      <c r="AF23">
+      <c r="AO23">
         <v>0.3184858</v>
       </c>
-      <c r="AG23">
+      <c r="AP23">
+        <v>545.6847322164559</v>
+      </c>
+      <c r="AQ23">
+        <v>1.75</v>
+      </c>
+      <c r="AR23">
+        <v>22722757.1414039</v>
+      </c>
+      <c r="AS23">
+        <v>47490562.42553415</v>
+      </c>
+      <c r="AT23">
+        <v>15830187.47517805</v>
+      </c>
+      <c r="AU23">
+        <v>3.8</v>
+      </c>
+      <c r="AV23">
         <v>16899856.15674364</v>
       </c>
-      <c r="AH23">
-        <v>22722757.1414039</v>
-      </c>
-      <c r="AI23">
-        <v>47490562.42553415</v>
-      </c>
-      <c r="AJ23">
-        <v>15830187.47517805</v>
-      </c>
-      <c r="AK23">
+      <c r="AW23">
         <v>32730043.63192169</v>
       </c>
-      <c r="AM23">
+      <c r="AY23">
         <v>0.3184858</v>
       </c>
-      <c r="AN23">
+      <c r="AZ23">
+        <v>506625</v>
+      </c>
+      <c r="BA23">
+        <v>64921.75811726942</v>
+      </c>
+      <c r="BB23">
+        <v>37561.79124135053</v>
+      </c>
+      <c r="BC23">
+        <v>78504.14369442259</v>
+      </c>
+      <c r="BD23">
+        <v>26168.04789814086</v>
+      </c>
+      <c r="BE23">
+        <v>0.035</v>
+      </c>
+      <c r="BF23">
         <v>24834.29194441612</v>
       </c>
-      <c r="AO23">
-        <v>37561.79124135053</v>
-      </c>
-      <c r="AP23">
-        <v>78504.14369442259</v>
-      </c>
-      <c r="AQ23">
-        <v>26168.04789814086</v>
-      </c>
-      <c r="AR23">
+      <c r="BG23">
         <v>51002.33984255698</v>
       </c>
-      <c r="AT23">
+      <c r="BI23">
         <v>0.3184858</v>
       </c>
-      <c r="AU23">
+      <c r="BJ23">
         <v>0.1289127497310439</v>
       </c>
-      <c r="AV23">
+      <c r="BK23">
         <v>5614424.422808484</v>
       </c>
-      <c r="AW23">
+      <c r="BL23">
         <v>498642.4131352259</v>
       </c>
-      <c r="AX23">
+      <c r="BM23">
         <v>32730043.63192169</v>
       </c>
-      <c r="AY23">
+      <c r="BN23">
         <v>51002.33984255698</v>
       </c>
-      <c r="AZ23">
+      <c r="BO23">
         <v>41140.88934859361</v>
       </c>
-      <c r="BA23">
+      <c r="BP23">
         <v>-51954508.75823043</v>
       </c>
-      <c r="BB23">
+      <c r="BQ23">
         <v>-90889762.45528698</v>
       </c>
     </row>
-    <row r="24" spans="2:54">
+    <row r="24" spans="2:69">
       <c r="B24">
         <v>0.328598642</v>
       </c>
@@ -3821,112 +4895,157 @@
         <v>74.4121609919</v>
       </c>
       <c r="O24">
+        <v>2.3625</v>
+      </c>
+      <c r="P24">
         <v>796617.2236593395</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>1669709.700789976</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>556569.9002633252</v>
       </c>
-      <c r="R24">
+      <c r="S24">
+        <v>91.62266951293844</v>
+      </c>
+      <c r="T24">
         <v>72615.54672247938</v>
       </c>
-      <c r="S24">
+      <c r="U24">
         <v>6164757.351960489</v>
       </c>
-      <c r="T24">
+      <c r="V24">
         <v>6721327.252223814</v>
       </c>
-      <c r="V24">
+      <c r="X24">
         <v>0.328598642</v>
       </c>
-      <c r="W24">
+      <c r="Y24">
+        <v>113.565</v>
+      </c>
+      <c r="Z24">
+        <v>461.9278409115535</v>
+      </c>
+      <c r="AA24">
+        <v>3296.371790468097</v>
+      </c>
+      <c r="AB24">
+        <v>3.7935</v>
+      </c>
+      <c r="AC24">
         <v>766656.7332969116</v>
       </c>
-      <c r="X24">
+      <c r="AD24">
         <v>1602312.572590545</v>
       </c>
-      <c r="Y24">
+      <c r="AE24">
         <v>534104.190863515</v>
       </c>
-      <c r="Z24">
+      <c r="AF24">
         <v>534104.190863515</v>
       </c>
-      <c r="AB24">
+      <c r="AH24">
         <v>0.328598642</v>
       </c>
-      <c r="AC24">
+      <c r="AI24">
+        <v>-16.0650153</v>
+      </c>
+      <c r="AJ24">
+        <v>20</v>
+      </c>
+      <c r="AK24">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL24">
         <v>5631451.777958727</v>
       </c>
-      <c r="AD24">
+      <c r="AM24">
         <v>45727.38843702486</v>
       </c>
-      <c r="AF24">
+      <c r="AO24">
         <v>0.328598642</v>
       </c>
-      <c r="AG24">
+      <c r="AP24">
+        <v>603.9514141655624</v>
+      </c>
+      <c r="AQ24">
+        <v>1.75</v>
+      </c>
+      <c r="AR24">
+        <v>24769212.3586513</v>
+      </c>
+      <c r="AS24">
+        <v>51767653.82958122</v>
+      </c>
+      <c r="AT24">
+        <v>17255884.60986041</v>
+      </c>
+      <c r="AU24">
+        <v>3.8</v>
+      </c>
+      <c r="AV24">
         <v>18704375.29670747</v>
       </c>
-      <c r="AH24">
-        <v>24769212.3586513</v>
-      </c>
-      <c r="AI24">
-        <v>51767653.82958122</v>
-      </c>
-      <c r="AJ24">
-        <v>17255884.60986041</v>
-      </c>
-      <c r="AK24">
+      <c r="AW24">
         <v>35960259.90656787</v>
       </c>
-      <c r="AM24">
+      <c r="AY24">
         <v>0.328598642</v>
       </c>
-      <c r="AN24">
+      <c r="AZ24">
+        <v>506625</v>
+      </c>
+      <c r="BA24">
+        <v>71868.00125875459</v>
+      </c>
+      <c r="BB24">
+        <v>40011.94472520499</v>
+      </c>
+      <c r="BC24">
+        <v>83624.96447567841</v>
+      </c>
+      <c r="BD24">
+        <v>27874.98815855947</v>
+      </c>
+      <c r="BE24">
+        <v>0.035</v>
+      </c>
+      <c r="BF24">
         <v>27491.413918546</v>
       </c>
-      <c r="AO24">
-        <v>40011.94472520499</v>
-      </c>
-      <c r="AP24">
-        <v>83624.96447567841</v>
-      </c>
-      <c r="AQ24">
-        <v>27874.98815855947</v>
-      </c>
-      <c r="AR24">
+      <c r="BG24">
         <v>55366.40207710546</v>
       </c>
-      <c r="AT24">
+      <c r="BI24">
         <v>0.328598642</v>
       </c>
-      <c r="AU24">
+      <c r="BJ24">
         <v>0.1129226347370147</v>
       </c>
-      <c r="AV24">
+      <c r="BK24">
         <v>6721327.252223814</v>
       </c>
-      <c r="AW24">
+      <c r="BL24">
         <v>534104.190863515</v>
       </c>
-      <c r="AX24">
+      <c r="BM24">
         <v>35960259.90656787</v>
       </c>
-      <c r="AY24">
+      <c r="BN24">
         <v>55366.40207710546</v>
       </c>
-      <c r="AZ24">
+      <c r="BO24">
         <v>45727.38843702486</v>
       </c>
-      <c r="BA24">
+      <c r="BP24">
         <v>-68751453.35044758</v>
       </c>
-      <c r="BB24">
+      <c r="BQ24">
         <v>-112068238.4906169</v>
       </c>
     </row>
-    <row r="25" spans="2:54">
+    <row r="25" spans="2:69">
       <c r="B25">
         <v>0.339046683</v>
       </c>
@@ -3964,112 +5083,157 @@
         <v>79.1703456078</v>
       </c>
       <c r="O25">
+        <v>2.3625</v>
+      </c>
+      <c r="P25">
         <v>894403.8939268407</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>1874670.561670658</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>624890.1872235527</v>
       </c>
-      <c r="R25">
+      <c r="S25">
+        <v>110.3465635104641</v>
+      </c>
+      <c r="T25">
         <v>87455.16891021833</v>
       </c>
-      <c r="S25">
+      <c r="U25">
         <v>7424579.443940409</v>
       </c>
-      <c r="T25">
+      <c r="V25">
         <v>8049469.631163962</v>
       </c>
-      <c r="V25">
+      <c r="X25">
         <v>0.339046683</v>
       </c>
-      <c r="W25">
+      <c r="Y25">
+        <v>113.565</v>
+      </c>
+      <c r="Z25">
+        <v>461.9278409115535</v>
+      </c>
+      <c r="AA25">
+        <v>3662.695299621055</v>
+      </c>
+      <c r="AB25">
+        <v>3.7935</v>
+      </c>
+      <c r="AC25">
         <v>821009.0525612679</v>
       </c>
-      <c r="X25">
+      <c r="AD25">
         <v>1715908.91985305</v>
       </c>
-      <c r="Y25">
+      <c r="AE25">
         <v>571969.6399510165</v>
       </c>
-      <c r="Z25">
+      <c r="AF25">
         <v>571969.6399510165</v>
       </c>
-      <c r="AB25">
+      <c r="AH25">
         <v>0.339046683</v>
       </c>
-      <c r="AC25">
+      <c r="AI25">
+        <v>-17.8503093</v>
+      </c>
+      <c r="AJ25">
+        <v>20</v>
+      </c>
+      <c r="AK25">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL25">
         <v>6257271.10540618</v>
       </c>
-      <c r="AD25">
+      <c r="AM25">
         <v>50809.04137589818</v>
       </c>
-      <c r="AF25">
+      <c r="AO25">
         <v>0.339046683</v>
       </c>
-      <c r="AG25">
+      <c r="AP25">
+        <v>669.4542725757711</v>
+      </c>
+      <c r="AQ25">
+        <v>1.75</v>
+      </c>
+      <c r="AR25">
+        <v>27034807.0579619</v>
+      </c>
+      <c r="AS25">
+        <v>56502746.75114036</v>
+      </c>
+      <c r="AT25">
+        <v>18834248.91704679</v>
+      </c>
+      <c r="AU25">
+        <v>3.8</v>
+      </c>
+      <c r="AV25">
         <v>20732998.82167163</v>
       </c>
-      <c r="AH25">
-        <v>27034807.0579619</v>
-      </c>
-      <c r="AI25">
-        <v>56502746.75114036</v>
-      </c>
-      <c r="AJ25">
-        <v>18834248.91704679</v>
-      </c>
-      <c r="AK25">
+      <c r="AW25">
         <v>39567247.73871842</v>
       </c>
-      <c r="AM25">
+      <c r="AY25">
         <v>0.339046683</v>
       </c>
-      <c r="AN25">
+      <c r="AZ25">
+        <v>506625</v>
+      </c>
+      <c r="BA25">
+        <v>79674.4690181394</v>
+      </c>
+      <c r="BB25">
+        <v>42655.01441416738</v>
+      </c>
+      <c r="BC25">
+        <v>89148.98012560981</v>
+      </c>
+      <c r="BD25">
+        <v>29716.3267085366</v>
+      </c>
+      <c r="BE25">
+        <v>0.035</v>
+      </c>
+      <c r="BF25">
         <v>30477.59459222779</v>
       </c>
-      <c r="AO25">
-        <v>42655.01441416738</v>
-      </c>
-      <c r="AP25">
-        <v>89148.98012560981</v>
-      </c>
-      <c r="AQ25">
-        <v>29716.3267085366</v>
-      </c>
-      <c r="AR25">
+      <c r="BG25">
         <v>60193.92130076439</v>
       </c>
-      <c r="AT25">
+      <c r="BI25">
         <v>0.339046683</v>
       </c>
-      <c r="AU25">
+      <c r="BJ25">
         <v>0.09876500668047693</v>
       </c>
-      <c r="AV25">
+      <c r="BK25">
         <v>8049469.631163962</v>
       </c>
-      <c r="AW25">
+      <c r="BL25">
         <v>571969.6399510165</v>
       </c>
-      <c r="AX25">
+      <c r="BM25">
         <v>39567247.73871842</v>
       </c>
-      <c r="AY25">
+      <c r="BN25">
         <v>60193.92130076439</v>
       </c>
-      <c r="AZ25">
+      <c r="BO25">
         <v>50809.04137589818</v>
       </c>
-      <c r="BA25">
+      <c r="BP25">
         <v>-87549162.35902312</v>
       </c>
-      <c r="BB25">
+      <c r="BQ25">
         <v>-135848852.3315332</v>
       </c>
     </row>
-    <row r="26" spans="2:54">
+    <row r="26" spans="2:69">
       <c r="B26">
         <v>0.349802698</v>
       </c>
@@ -4107,112 +5271,157 @@
         <v>84.2327855562</v>
       </c>
       <c r="O26">
+        <v>2.3625</v>
+      </c>
+      <c r="P26">
         <v>1004194.10474466</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>2104790.843544807</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>701596.947848269</v>
       </c>
-      <c r="R26">
+      <c r="S26">
+        <v>132.8968475063094</v>
+      </c>
+      <c r="T26">
         <v>105327.3964911255</v>
       </c>
-      <c r="S26">
+      <c r="U26">
         <v>8941857.097944511</v>
       </c>
-      <c r="T26">
+      <c r="V26">
         <v>9643454.045792781</v>
       </c>
-      <c r="V26">
+      <c r="X26">
         <v>0.349802698</v>
       </c>
-      <c r="W26">
+      <c r="Y26">
+        <v>113.565</v>
+      </c>
+      <c r="Z26">
+        <v>461.9278409115535</v>
+      </c>
+      <c r="AA26">
+        <v>4067.392048612201</v>
+      </c>
+      <c r="AB26">
+        <v>3.7935</v>
+      </c>
+      <c r="AC26">
         <v>878886.6231153613</v>
       </c>
-      <c r="X26">
+      <c r="AD26">
         <v>1836873.042311105</v>
       </c>
-      <c r="Y26">
+      <c r="AE26">
         <v>612291.0141037016</v>
       </c>
-      <c r="Z26">
+      <c r="AF26">
         <v>612291.0141037016</v>
       </c>
-      <c r="AB26">
+      <c r="AH26">
         <v>0.349802698</v>
       </c>
-      <c r="AC26">
+      <c r="AI26">
+        <v>-19.822617</v>
+      </c>
+      <c r="AJ26">
+        <v>20</v>
+      </c>
+      <c r="AK26">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL26">
         <v>6948646.463377155</v>
       </c>
-      <c r="AD26">
+      <c r="AM26">
         <v>56423.0092826225</v>
       </c>
-      <c r="AF26">
+      <c r="AO26">
         <v>0.349802698</v>
       </c>
-      <c r="AG26">
+      <c r="AP26">
+        <v>743.1238359949599</v>
+      </c>
+      <c r="AQ26">
+        <v>1.75</v>
+      </c>
+      <c r="AR26">
+        <v>29543538.28333826</v>
+      </c>
+      <c r="AS26">
+        <v>61745995.01217695</v>
+      </c>
+      <c r="AT26">
+        <v>20581998.33739232</v>
+      </c>
+      <c r="AU26">
+        <v>3.8</v>
+      </c>
+      <c r="AV26">
         <v>23014545.20076391</v>
       </c>
-      <c r="AH26">
-        <v>29543538.28333826</v>
-      </c>
-      <c r="AI26">
-        <v>61745995.01217695</v>
-      </c>
-      <c r="AJ26">
-        <v>20581998.33739232</v>
-      </c>
-      <c r="AK26">
+      <c r="AW26">
         <v>43596543.53815623</v>
       </c>
-      <c r="AM26">
+      <c r="AY26">
         <v>0.349802698</v>
       </c>
-      <c r="AN26">
+      <c r="AZ26">
+        <v>506625</v>
+      </c>
+      <c r="BA26">
+        <v>88451.39160807634</v>
+      </c>
+      <c r="BB26">
+        <v>45505.76458855321</v>
+      </c>
+      <c r="BC26">
+        <v>95107.0479900762</v>
+      </c>
+      <c r="BD26">
+        <v>31702.3493300254</v>
+      </c>
+      <c r="BE26">
+        <v>0.035</v>
+      </c>
+      <c r="BF26">
         <v>33834.9999412683</v>
       </c>
-      <c r="AO26">
-        <v>45505.76458855321</v>
-      </c>
-      <c r="AP26">
-        <v>95107.0479900762</v>
-      </c>
-      <c r="AQ26">
-        <v>31702.3493300254</v>
-      </c>
-      <c r="AR26">
+      <c r="BG26">
         <v>65537.3492712937</v>
       </c>
-      <c r="AT26">
+      <c r="BI26">
         <v>0.349802698</v>
       </c>
-      <c r="AU26">
+      <c r="BJ26">
         <v>0.0862667542254639</v>
       </c>
-      <c r="AV26">
+      <c r="BK26">
         <v>9643454.045792781</v>
       </c>
-      <c r="AW26">
+      <c r="BL26">
         <v>612291.0141037016</v>
       </c>
-      <c r="AX26">
+      <c r="BM26">
         <v>43596543.53815623</v>
       </c>
-      <c r="AY26">
+      <c r="BN26">
         <v>65537.3492712937</v>
       </c>
-      <c r="AZ26">
+      <c r="BO26">
         <v>56423.0092826225</v>
       </c>
-      <c r="BA26">
+      <c r="BP26">
         <v>-108554796.6058938</v>
       </c>
-      <c r="BB26">
+      <c r="BQ26">
         <v>-162529045.5625004</v>
       </c>
     </row>
-    <row r="27" spans="2:54">
+    <row r="27" spans="2:69">
       <c r="B27">
         <v>0.360901992</v>
       </c>
@@ -4250,112 +5459,157 @@
         <v>89.6189361828</v>
       </c>
       <c r="O27">
+        <v>2.3625</v>
+      </c>
+      <c r="P27">
         <v>1127461.322200863</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>2363158.93133301</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>787719.6437776699</v>
       </c>
-      <c r="R27">
+      <c r="S27">
+        <v>160.0554781764274</v>
+      </c>
+      <c r="T27">
         <v>126851.9692287276</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <v>10769203.63764718</v>
       </c>
-      <c r="T27">
+      <c r="V27">
         <v>11556923.28142485</v>
       </c>
-      <c r="V27">
+      <c r="X27">
         <v>0.360901992</v>
       </c>
-      <c r="W27">
+      <c r="Y27">
+        <v>113.565</v>
+      </c>
+      <c r="Z27">
+        <v>461.9278409115535</v>
+      </c>
+      <c r="AA27">
+        <v>4513.985653417912</v>
+      </c>
+      <c r="AB27">
+        <v>3.7935</v>
+      </c>
+      <c r="AC27">
         <v>940462.6336680565</v>
       </c>
-      <c r="X27">
+      <c r="AD27">
         <v>1965566.904366238</v>
       </c>
-      <c r="Y27">
+      <c r="AE27">
         <v>655188.9681220793</v>
       </c>
-      <c r="Z27">
+      <c r="AF27">
         <v>655188.9681220793</v>
       </c>
-      <c r="AB27">
+      <c r="AH27">
         <v>0.360901992</v>
       </c>
-      <c r="AC27">
+      <c r="AI27">
+        <v>-21.9991109</v>
+      </c>
+      <c r="AJ27">
+        <v>20</v>
+      </c>
+      <c r="AK27">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL27">
         <v>7711597.522805735</v>
       </c>
-      <c r="AD27">
+      <c r="AM27">
         <v>62618.17188518256</v>
       </c>
-      <c r="AF27">
+      <c r="AO27">
         <v>0.360901992</v>
       </c>
-      <c r="AG27">
+      <c r="AP27">
+        <v>825.9417741493072</v>
+      </c>
+      <c r="AQ27">
+        <v>1.75</v>
+      </c>
+      <c r="AR27">
+        <v>32319714.2114595</v>
+      </c>
+      <c r="AS27">
+        <v>67548202.70195034</v>
+      </c>
+      <c r="AT27">
+        <v>22516067.56731678</v>
+      </c>
+      <c r="AU27">
+        <v>3.8</v>
+      </c>
+      <c r="AV27">
         <v>25579416.74540404</v>
       </c>
-      <c r="AH27">
-        <v>32319714.2114595</v>
-      </c>
-      <c r="AI27">
-        <v>67548202.70195034</v>
-      </c>
-      <c r="AJ27">
-        <v>22516067.56731678</v>
-      </c>
-      <c r="AK27">
+      <c r="AW27">
         <v>48095484.31272082</v>
       </c>
-      <c r="AM27">
+      <c r="AY27">
         <v>0.360901992</v>
       </c>
-      <c r="AN27">
+      <c r="AZ27">
+        <v>506625</v>
+      </c>
+      <c r="BA27">
+        <v>98315.0593154347</v>
+      </c>
+      <c r="BB27">
+        <v>48577.5592498141</v>
+      </c>
+      <c r="BC27">
+        <v>101527.0988321115</v>
+      </c>
+      <c r="BD27">
+        <v>33842.36627737049</v>
+      </c>
+      <c r="BE27">
+        <v>0.035</v>
+      </c>
+      <c r="BF27">
         <v>37608.11408036442</v>
       </c>
-      <c r="AO27">
-        <v>48577.5592498141</v>
-      </c>
-      <c r="AP27">
-        <v>101527.0988321115</v>
-      </c>
-      <c r="AQ27">
-        <v>33842.36627737049</v>
-      </c>
-      <c r="AR27">
+      <c r="BG27">
         <v>71450.48035773491</v>
       </c>
-      <c r="AT27">
+      <c r="BI27">
         <v>0.360901992</v>
       </c>
-      <c r="AU27">
+      <c r="BJ27">
         <v>0.0752574459316899</v>
       </c>
-      <c r="AV27">
+      <c r="BK27">
         <v>11556923.28142485</v>
       </c>
-      <c r="AW27">
+      <c r="BL27">
         <v>655188.9681220793</v>
       </c>
-      <c r="AX27">
+      <c r="BM27">
         <v>48095484.31272082</v>
       </c>
-      <c r="AY27">
+      <c r="BN27">
         <v>71450.48035773491</v>
       </c>
-      <c r="AZ27">
+      <c r="BO27">
         <v>62618.17188518256</v>
       </c>
-      <c r="BA27">
+      <c r="BP27">
         <v>-132003387.5312956</v>
       </c>
-      <c r="BB27">
+      <c r="BQ27">
         <v>-192445052.7458063</v>
       </c>
     </row>
-    <row r="28" spans="2:54">
+    <row r="28" spans="2:69">
       <c r="B28">
         <v>0.37234334</v>
       </c>
@@ -4393,112 +5647,157 @@
         <v>95.34949731660001</v>
       </c>
       <c r="O28">
+        <v>2.3625</v>
+      </c>
+      <c r="P28">
         <v>1265859.895248875</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>2653242.340441642</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>884414.1134805472</v>
       </c>
-      <c r="R28">
+      <c r="S28">
+        <v>192.764214779451</v>
+      </c>
+      <c r="T28">
         <v>152775.2784234539</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <v>12969984.57449114</v>
       </c>
-      <c r="T28">
+      <c r="V28">
         <v>13854398.68797169</v>
       </c>
-      <c r="V28">
+      <c r="X28">
         <v>0.37234334</v>
       </c>
-      <c r="W28">
+      <c r="Y28">
+        <v>113.565</v>
+      </c>
+      <c r="Z28">
+        <v>461.9278409115535</v>
+      </c>
+      <c r="AA28">
+        <v>5003.734212684134</v>
+      </c>
+      <c r="AB28">
+        <v>3.7935</v>
+      </c>
+      <c r="AC28">
         <v>1005584.760086644</v>
       </c>
-      <c r="X28">
+      <c r="AD28">
         <v>2101672.148581085</v>
       </c>
-      <c r="Y28">
+      <c r="AE28">
         <v>700557.3828603616</v>
       </c>
-      <c r="Z28">
+      <c r="AF28">
         <v>700557.3828603616</v>
       </c>
-      <c r="AB28">
+      <c r="AH28">
         <v>0.37234334</v>
       </c>
-      <c r="AC28">
+      <c r="AI28">
+        <v>-24.3859224</v>
+      </c>
+      <c r="AJ28">
+        <v>20</v>
+      </c>
+      <c r="AK28">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL28">
         <v>8548273.592782917</v>
       </c>
-      <c r="AD28">
+      <c r="AM28">
         <v>69411.98157339728</v>
       </c>
-      <c r="AF28">
+      <c r="AO28">
         <v>0.37234334</v>
       </c>
-      <c r="AG28">
+      <c r="AP28">
+        <v>918.882072622108</v>
+      </c>
+      <c r="AQ28">
+        <v>1.75</v>
+      </c>
+      <c r="AR28">
+        <v>35385986.39482582</v>
+      </c>
+      <c r="AS28">
+        <v>73956711.56518595</v>
+      </c>
+      <c r="AT28">
+        <v>24652237.18839531</v>
+      </c>
+      <c r="AU28">
+        <v>3.8</v>
+      </c>
+      <c r="AV28">
         <v>28457777.78910668</v>
       </c>
-      <c r="AH28">
-        <v>35385986.39482582</v>
-      </c>
-      <c r="AI28">
-        <v>73956711.56518595</v>
-      </c>
-      <c r="AJ28">
-        <v>24652237.18839531</v>
-      </c>
-      <c r="AK28">
+      <c r="AW28">
         <v>53110014.977502</v>
       </c>
-      <c r="AM28">
+      <c r="AY28">
         <v>0.37234334</v>
       </c>
-      <c r="AN28">
+      <c r="AZ28">
+        <v>506625</v>
+      </c>
+      <c r="BA28">
+        <v>109380.5859922178</v>
+      </c>
+      <c r="BB28">
+        <v>51880.31479527299</v>
+      </c>
+      <c r="BC28">
+        <v>108429.8579221205</v>
+      </c>
+      <c r="BD28">
+        <v>36143.28597404018</v>
+      </c>
+      <c r="BE28">
+        <v>0.035</v>
+      </c>
+      <c r="BF28">
         <v>41840.97110671868</v>
       </c>
-      <c r="AO28">
-        <v>51880.31479527299</v>
-      </c>
-      <c r="AP28">
-        <v>108429.8579221205</v>
-      </c>
-      <c r="AQ28">
-        <v>36143.28597404018</v>
-      </c>
-      <c r="AR28">
+      <c r="BG28">
         <v>77984.25708075886</v>
       </c>
-      <c r="AT28">
+      <c r="BI28">
         <v>0.37234334</v>
       </c>
-      <c r="AU28">
+      <c r="BJ28">
         <v>0.06559218895741049</v>
       </c>
-      <c r="AV28">
+      <c r="BK28">
         <v>13854398.68797169</v>
       </c>
-      <c r="AW28">
+      <c r="BL28">
         <v>700557.3828603616</v>
       </c>
-      <c r="AX28">
+      <c r="BM28">
         <v>53110014.977502</v>
       </c>
-      <c r="AY28">
+      <c r="BN28">
         <v>77984.25708075886</v>
       </c>
-      <c r="AZ28">
+      <c r="BO28">
         <v>69411.98157339728</v>
       </c>
-      <c r="BA28">
+      <c r="BP28">
         <v>-158074375.6042879</v>
       </c>
-      <c r="BB28">
+      <c r="BQ28">
         <v>-225886742.8912761</v>
       </c>
     </row>
-    <row r="29" spans="2:54">
+    <row r="29" spans="2:69">
       <c r="B29">
         <v>0.384151656</v>
       </c>
@@ -4536,112 +5835,157 @@
         <v>101.4464910296</v>
       </c>
       <c r="O29">
+        <v>2.3625</v>
+      </c>
+      <c r="P29">
         <v>1421247.214417971</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>2978934.161420068</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>992978.0538066893</v>
       </c>
-      <c r="R29">
+      <c r="S29">
+        <v>232.1572652091954</v>
+      </c>
+      <c r="T29">
         <v>183996.2405415478</v>
       </c>
-      <c r="S29">
+      <c r="U29">
         <v>15620514.17097515</v>
       </c>
-      <c r="T29">
+      <c r="V29">
         <v>16613492.22478184</v>
       </c>
-      <c r="V29">
+      <c r="X29">
         <v>0.384151656</v>
       </c>
-      <c r="W29">
+      <c r="Y29">
+        <v>113.565</v>
+      </c>
+      <c r="Z29">
+        <v>461.9278409115535</v>
+      </c>
+      <c r="AA29">
+        <v>5539.06355826524</v>
+      </c>
+      <c r="AB29">
+        <v>3.7935</v>
+      </c>
+      <c r="AC29">
         <v>1074264.088666272</v>
       </c>
-      <c r="X29">
+      <c r="AD29">
         <v>2245211.945312507</v>
       </c>
-      <c r="Y29">
+      <c r="AE29">
         <v>748403.9817708358</v>
       </c>
-      <c r="Z29">
+      <c r="AF29">
         <v>748403.9817708358</v>
       </c>
-      <c r="AB29">
+      <c r="AH29">
         <v>0.384151656</v>
       </c>
-      <c r="AC29">
+      <c r="AI29">
+        <v>-26.9948739</v>
+      </c>
+      <c r="AJ29">
+        <v>20</v>
+      </c>
+      <c r="AK29">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL29">
         <v>9462818.9130904</v>
       </c>
-      <c r="AD29">
+      <c r="AM29">
         <v>76838.08957429405</v>
       </c>
-      <c r="AF29">
+      <c r="AO29">
         <v>0.384151656</v>
       </c>
-      <c r="AG29">
+      <c r="AP29">
+        <v>1023.108865411601</v>
+      </c>
+      <c r="AQ29">
+        <v>1.75</v>
+      </c>
+      <c r="AR29">
+        <v>38769845.04064588</v>
+      </c>
+      <c r="AS29">
+        <v>81028976.13494988</v>
+      </c>
+      <c r="AT29">
+        <v>27009658.71164996</v>
+      </c>
+      <c r="AU29">
+        <v>3.8</v>
+      </c>
+      <c r="AV29">
         <v>31685681.56179728</v>
       </c>
-      <c r="AH29">
-        <v>38769845.04064588</v>
-      </c>
-      <c r="AI29">
-        <v>81028976.13494988</v>
-      </c>
-      <c r="AJ29">
-        <v>27009658.71164996</v>
-      </c>
-      <c r="AK29">
+      <c r="AW29">
         <v>58695340.27344723</v>
       </c>
-      <c r="AM29">
+      <c r="AY29">
         <v>0.384151656</v>
       </c>
-      <c r="AN29">
+      <c r="AZ29">
+        <v>506625</v>
+      </c>
+      <c r="BA29">
+        <v>121785.591204709</v>
+      </c>
+      <c r="BB29">
+        <v>55427.6661381574</v>
+      </c>
+      <c r="BC29">
+        <v>115843.822228749</v>
+      </c>
+      <c r="BD29">
+        <v>38614.60740958298</v>
+      </c>
+      <c r="BE29">
+        <v>0.035</v>
+      </c>
+      <c r="BF29">
         <v>46586.21414931372</v>
       </c>
-      <c r="AO29">
-        <v>55427.6661381574</v>
-      </c>
-      <c r="AP29">
-        <v>115843.822228749</v>
-      </c>
-      <c r="AQ29">
-        <v>38614.60740958298</v>
-      </c>
-      <c r="AR29">
+      <c r="BG29">
         <v>85200.8215588967</v>
       </c>
-      <c r="AT29">
+      <c r="BI29">
         <v>0.384151656</v>
       </c>
-      <c r="AU29">
+      <c r="BJ29">
         <v>0.05712257118638488</v>
       </c>
-      <c r="AV29">
+      <c r="BK29">
         <v>16613492.22478184</v>
       </c>
-      <c r="AW29">
+      <c r="BL29">
         <v>748403.9817708358</v>
       </c>
-      <c r="AX29">
+      <c r="BM29">
         <v>58695340.27344723</v>
       </c>
-      <c r="AY29">
+      <c r="BN29">
         <v>85200.8215588967</v>
       </c>
-      <c r="AZ29">
+      <c r="BO29">
         <v>76838.08957429405</v>
       </c>
-      <c r="BA29">
+      <c r="BP29">
         <v>-187010408.323747</v>
       </c>
-      <c r="BB29">
+      <c r="BQ29">
         <v>-263229683.7148801</v>
       </c>
     </row>
-    <row r="30" spans="2:54">
+    <row r="30" spans="2:69">
       <c r="B30">
         <v>0.396390051</v>
       </c>
@@ -4679,112 +6023,157 @@
         <v>107.9333489114</v>
       </c>
       <c r="O30">
+        <v>2.3625</v>
+      </c>
+      <c r="P30">
         <v>1595708.703207409</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>3344605.44192273</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>1114868.48064091</v>
       </c>
-      <c r="R30">
+      <c r="S30">
+        <v>279.6006311033377</v>
+      </c>
+      <c r="T30">
         <v>221597.4801809503</v>
       </c>
-      <c r="S30">
+      <c r="U30">
         <v>18812702.7445286</v>
       </c>
-      <c r="T30">
+      <c r="V30">
         <v>19927571.22516951</v>
       </c>
-      <c r="V30">
+      <c r="X30">
         <v>0.396390051</v>
       </c>
-      <c r="W30">
+      <c r="Y30">
+        <v>113.565</v>
+      </c>
+      <c r="Z30">
+        <v>461.9278409115535</v>
+      </c>
+      <c r="AA30">
+        <v>6118.853150528265</v>
+      </c>
+      <c r="AB30">
+        <v>3.7935</v>
+      </c>
+      <c r="AC30">
         <v>1146074.76829848</v>
       </c>
-      <c r="X30">
+      <c r="AD30">
         <v>2395296.265743823</v>
       </c>
-      <c r="Y30">
+      <c r="AE30">
         <v>798432.0885812743</v>
       </c>
-      <c r="Z30">
+      <c r="AF30">
         <v>798432.0885812743</v>
       </c>
-      <c r="AB30">
+      <c r="AH30">
         <v>0.396390051</v>
       </c>
-      <c r="AC30">
+      <c r="AI30">
+        <v>-29.8205044</v>
+      </c>
+      <c r="AJ30">
+        <v>20</v>
+      </c>
+      <c r="AK30">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL30">
         <v>10453319.17754265</v>
       </c>
-      <c r="AD30">
+      <c r="AM30">
         <v>84880.95172164627</v>
       </c>
-      <c r="AF30">
+      <c r="AO30">
         <v>0.396390051</v>
       </c>
-      <c r="AG30">
+      <c r="AP30">
+        <v>1139.515860645658</v>
+      </c>
+      <c r="AQ30">
+        <v>1.75</v>
+      </c>
+      <c r="AR30">
+        <v>42488638.28919488</v>
+      </c>
+      <c r="AS30">
+        <v>88801254.0244173</v>
+      </c>
+      <c r="AT30">
+        <v>29600418.0081391</v>
+      </c>
+      <c r="AU30">
+        <v>3.8</v>
+      </c>
+      <c r="AV30">
         <v>35290806.20419601</v>
       </c>
-      <c r="AH30">
-        <v>42488638.28919488</v>
-      </c>
-      <c r="AI30">
-        <v>88801254.0244173</v>
-      </c>
-      <c r="AJ30">
-        <v>29600418.0081391</v>
-      </c>
-      <c r="AK30">
+      <c r="AW30">
         <v>64891224.2123351</v>
       </c>
-      <c r="AM30">
+      <c r="AY30">
         <v>0.396390051</v>
       </c>
-      <c r="AN30">
+      <c r="AZ30">
+        <v>506625</v>
+      </c>
+      <c r="BA30">
+        <v>135635.2959161832</v>
+      </c>
+      <c r="BB30">
+        <v>59221.34511652888</v>
+      </c>
+      <c r="BC30">
+        <v>123772.6112935453</v>
+      </c>
+      <c r="BD30">
+        <v>41257.53709784844</v>
+      </c>
+      <c r="BE30">
+        <v>0.035</v>
+      </c>
+      <c r="BF30">
         <v>51884.09301339851</v>
       </c>
-      <c r="AO30">
-        <v>59221.34511652888</v>
-      </c>
-      <c r="AP30">
-        <v>123772.6112935453</v>
-      </c>
-      <c r="AQ30">
-        <v>41257.53709784844</v>
-      </c>
-      <c r="AR30">
+      <c r="BG30">
         <v>93141.63011124695</v>
       </c>
-      <c r="AT30">
+      <c r="BI30">
         <v>0.396390051</v>
       </c>
-      <c r="AU30">
+      <c r="BJ30">
         <v>0.04972513488211383</v>
       </c>
-      <c r="AV30">
+      <c r="BK30">
         <v>19927571.22516951</v>
       </c>
-      <c r="AW30">
+      <c r="BL30">
         <v>798432.0885812743</v>
       </c>
-      <c r="AX30">
+      <c r="BM30">
         <v>64891224.2123351</v>
       </c>
-      <c r="AY30">
+      <c r="BN30">
         <v>93141.63011124695</v>
       </c>
-      <c r="AZ30">
+      <c r="BO30">
         <v>84880.95172164627</v>
       </c>
-      <c r="BA30">
+      <c r="BP30">
         <v>-218901637.3742679</v>
       </c>
-      <c r="BB30">
+      <c r="BQ30">
         <v>-304696887.4821867</v>
       </c>
     </row>
-    <row r="31" spans="2:54">
+    <row r="31" spans="2:69">
       <c r="B31">
         <v>0.409017827</v>
       </c>
@@ -4822,108 +6211,153 @@
         <v>114.835</v>
       </c>
       <c r="O31">
+        <v>2.3625</v>
+      </c>
+      <c r="P31">
         <v>1791585.753443048</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>3755163.739216629</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>1251721.246405543</v>
       </c>
-      <c r="R31">
+      <c r="S31">
+        <v>336.739462556656</v>
+      </c>
+      <c r="T31">
         <v>266882.8610492777</v>
       </c>
-      <c r="S31">
+      <c r="U31">
         <v>22657242.89116264</v>
       </c>
-      <c r="T31">
+      <c r="V31">
         <v>23908964.13756818</v>
       </c>
-      <c r="V31">
+      <c r="X31">
         <v>0.409017827</v>
       </c>
-      <c r="W31">
+      <c r="Y31">
+        <v>113.565</v>
+      </c>
+      <c r="Z31">
+        <v>461.9278409115535</v>
+      </c>
+      <c r="AA31">
+        <v>6748.540325453389</v>
+      </c>
+      <c r="AB31">
+        <v>3.7935</v>
+      </c>
+      <c r="AC31">
         <v>1221416.639861419</v>
       </c>
-      <c r="X31">
+      <c r="AD31">
         <v>2552760.777310366</v>
       </c>
-      <c r="Y31">
+      <c r="AE31">
         <v>850920.2591034553</v>
       </c>
-      <c r="Z31">
+      <c r="AF31">
         <v>850920.2591034553</v>
       </c>
-      <c r="AB31">
+      <c r="AH31">
         <v>0.409017827</v>
       </c>
-      <c r="AC31">
+      <c r="AI31">
+        <v>-32.889313</v>
+      </c>
+      <c r="AJ31">
+        <v>20</v>
+      </c>
+      <c r="AK31">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL31">
         <v>11529063.41581206</v>
       </c>
-      <c r="AD31">
+      <c r="AM31">
         <v>93615.99493639395</v>
       </c>
-      <c r="AF31">
+      <c r="AO31">
         <v>0.409017827</v>
       </c>
-      <c r="AG31">
+      <c r="AP31">
+        <v>1270.048637579607</v>
+      </c>
+      <c r="AQ31">
+        <v>1.75</v>
+      </c>
+      <c r="AR31">
+        <v>46591618.20139863</v>
+      </c>
+      <c r="AS31">
+        <v>97376482.04092313</v>
+      </c>
+      <c r="AT31">
+        <v>32458827.34697438</v>
+      </c>
+      <c r="AU31">
+        <v>3.8</v>
+      </c>
+      <c r="AV31">
         <v>39333406.30584043</v>
       </c>
-      <c r="AH31">
-        <v>46591618.20139863</v>
-      </c>
-      <c r="AI31">
-        <v>97376482.04092313</v>
-      </c>
-      <c r="AJ31">
-        <v>32458827.34697438</v>
-      </c>
-      <c r="AK31">
+      <c r="AW31">
         <v>71792233.65281481</v>
       </c>
-      <c r="AM31">
+      <c r="AY31">
         <v>0.409017827</v>
       </c>
-      <c r="AN31">
+      <c r="AZ31">
+        <v>506625</v>
+      </c>
+      <c r="BA31">
+        <v>151159.9148320289</v>
+      </c>
+      <c r="BB31">
+        <v>63293.94001183869</v>
+      </c>
+      <c r="BC31">
+        <v>132284.3346247429</v>
+      </c>
+      <c r="BD31">
+        <v>44094.77820824762</v>
+      </c>
+      <c r="BE31">
+        <v>0.035</v>
+      </c>
+      <c r="BF31">
         <v>57822.67092106242</v>
       </c>
-      <c r="AO31">
-        <v>63293.94001183869</v>
-      </c>
-      <c r="AP31">
-        <v>132284.3346247429</v>
-      </c>
-      <c r="AQ31">
-        <v>44094.77820824762</v>
-      </c>
-      <c r="AR31">
+      <c r="BG31">
         <v>101917.44912931</v>
       </c>
-      <c r="AT31">
+      <c r="BI31">
         <v>0.409017827</v>
       </c>
-      <c r="AU31">
+      <c r="BJ31">
         <v>0.04325637216720109</v>
       </c>
-      <c r="AV31">
+      <c r="BK31">
         <v>23908964.13756818</v>
       </c>
-      <c r="AW31">
+      <c r="BL31">
         <v>850920.2591034553</v>
       </c>
-      <c r="AX31">
+      <c r="BM31">
         <v>71792233.65281481</v>
       </c>
-      <c r="AY31">
+      <c r="BN31">
         <v>101917.44912931</v>
       </c>
-      <c r="AZ31">
+      <c r="BO31">
         <v>93615.99493639395</v>
       </c>
-      <c r="BA31">
+      <c r="BP31">
         <v>-254191094.778649</v>
       </c>
-      <c r="BB31">
+      <c r="BQ31">
         <v>-350938746.2722012</v>
       </c>
     </row>
